--- a/data processing/initial rankings WITH GC VALUES SIDE BY SIDE.xlsx
+++ b/data processing/initial rankings WITH GC VALUES SIDE BY SIDE.xlsx
@@ -794,23 +794,23 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="12.83203125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.83203125" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="12.83203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.83203125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="21" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.83203125" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.83203125" style="7" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" style="7" customWidth="1"/>
@@ -843,191 +843,191 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>675</v>
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2">
+        <v>949</v>
       </c>
       <c r="C2" s="6">
-        <v>675</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.76888888888888995</v>
+        <v>949</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.94731296101159002</v>
       </c>
       <c r="E2" s="8">
-        <v>0.77037037037037004</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.23111111111110999</v>
+        <v>0.94836670179135896</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5.2687038988408999E-2</v>
       </c>
       <c r="G2" s="8">
-        <v>0.22962962962962899</v>
-      </c>
-      <c r="H2">
-        <v>183</v>
+        <v>5.1633298208640703E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>291</v>
       </c>
       <c r="I2" s="6">
-        <v>183</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.3879781420765</v>
+        <v>291</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.73539518900344003</v>
       </c>
       <c r="K2" s="8">
-        <v>0.393442622950819</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.61202185792349995</v>
+        <v>0.73539518900343603</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.26460481099656002</v>
       </c>
       <c r="M2" s="8">
-        <v>0.60655737704918</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.38091074681239001</v>
+        <v>0.26460481099656302</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.21191777200815001</v>
       </c>
       <c r="O2" s="8">
-        <v>0.37692774741954999</v>
+        <v>0.21297151278792201</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>485</v>
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2">
+        <v>826</v>
       </c>
       <c r="C3" s="6">
-        <v>485</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.72164948453608002</v>
+        <v>826</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.9455205811138</v>
       </c>
       <c r="E3" s="8">
-        <v>0.72371134020618499</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.27835051546391998</v>
+        <v>0.945520581113801</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.4479418886198998E-2</v>
       </c>
       <c r="G3" s="8">
-        <v>0.27628865979381401</v>
-      </c>
-      <c r="H3">
-        <v>37</v>
+        <v>5.4479418886198498E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>227</v>
       </c>
       <c r="I3" s="6">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1">
-        <v>8.1081081081081002E-2</v>
+        <v>227</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.78854625550660995</v>
       </c>
       <c r="K3" s="8">
-        <v>8.1081081081081002E-2</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.91891891891891997</v>
+        <v>0.78854625550660795</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.21145374449338999</v>
       </c>
       <c r="M3" s="8">
-        <v>0.91891891891891797</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.64056840345499999</v>
+        <v>0.21145374449339199</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.15697432560718999</v>
       </c>
       <c r="O3" s="8">
-        <v>0.64263025912510396</v>
+        <v>0.15697432560719299</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>775</v>
+        <v>304</v>
       </c>
       <c r="C4" s="6">
-        <v>775</v>
+        <v>304</v>
       </c>
       <c r="D4" s="1">
-        <v>0.73548387096774004</v>
+        <v>0.92434210526315996</v>
       </c>
       <c r="E4" s="8">
-        <v>0.73806451612903201</v>
+        <v>0.92763157894736803</v>
       </c>
       <c r="F4" s="1">
-        <v>0.26451612903226002</v>
+        <v>7.5657894736841994E-2</v>
       </c>
       <c r="G4" s="8">
-        <v>0.26193548387096699</v>
+        <v>7.2368421052631499E-2</v>
       </c>
       <c r="H4">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I4" s="6">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J4" s="1">
-        <v>0.47368421052631998</v>
+        <v>0.72357723577235999</v>
       </c>
       <c r="K4" s="8">
-        <v>0.47368421052631499</v>
+        <v>0.723577235772357</v>
       </c>
       <c r="L4" s="1">
-        <v>0.52631578947367996</v>
+        <v>0.27642276422764001</v>
       </c>
       <c r="M4" s="8">
-        <v>0.52631578947368396</v>
+        <v>0.276422764227642</v>
       </c>
       <c r="N4" s="1">
-        <v>0.26179966044142999</v>
+        <v>0.2007648694908</v>
       </c>
       <c r="O4" s="8">
-        <v>0.26438030560271603</v>
+        <v>0.20405434317501001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>523</v>
+        <v>756</v>
       </c>
       <c r="C5" s="6">
-        <v>523</v>
+        <v>756</v>
       </c>
       <c r="D5" s="1">
-        <v>0.73422562141490999</v>
+        <v>0.92195767195766998</v>
       </c>
       <c r="E5" s="8">
-        <v>0.73613766730401498</v>
+        <v>0.92195767195767198</v>
       </c>
       <c r="F5" s="1">
-        <v>0.26577437858509001</v>
+        <v>7.8042328042327996E-2</v>
       </c>
       <c r="G5" s="8">
-        <v>0.26386233269598403</v>
+        <v>7.8042328042327996E-2</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I5" s="6">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J5" s="1">
-        <v>0.13076923076923</v>
+        <v>0.80952380952380998</v>
       </c>
       <c r="K5" s="8">
-        <v>0.13076923076923</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="L5" s="1">
-        <v>0.86923076923077003</v>
+        <v>0.19047619047618999</v>
       </c>
       <c r="M5" s="8">
-        <v>0.86923076923076903</v>
+        <v>0.19047619047618999</v>
       </c>
       <c r="N5" s="1">
-        <v>0.60345639064568002</v>
+        <v>0.11243386243386</v>
       </c>
       <c r="O5" s="8">
-        <v>0.605368436534784</v>
+        <v>0.112433862433862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1079,1694 +1079,1694 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>550</v>
+        <v>1239</v>
       </c>
       <c r="C7" s="6">
-        <v>550</v>
+        <v>1239</v>
       </c>
       <c r="D7" s="1">
-        <v>0.71090909090909005</v>
+        <v>0.91848264729620999</v>
       </c>
       <c r="E7" s="8">
-        <v>0.71454545454545404</v>
+        <v>0.92009685230024196</v>
       </c>
       <c r="F7" s="1">
-        <v>0.28909090909091001</v>
+        <v>8.1517352703792997E-2</v>
       </c>
       <c r="G7" s="8">
-        <v>0.28545454545454502</v>
+        <v>7.9903147699757801E-2</v>
       </c>
       <c r="H7">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="I7" s="6">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1">
-        <v>0.29120879120879001</v>
+        <v>0.59677419354839001</v>
       </c>
       <c r="K7" s="8">
-        <v>0.29670329670329598</v>
+        <v>0.59677419354838701</v>
       </c>
       <c r="L7" s="1">
-        <v>0.70879120879121005</v>
+        <v>0.40322580645160999</v>
       </c>
       <c r="M7" s="8">
-        <v>0.70329670329670302</v>
+        <v>0.40322580645161199</v>
       </c>
       <c r="N7" s="1">
-        <v>0.41970029970029998</v>
+        <v>0.32170845374781998</v>
       </c>
       <c r="O7" s="8">
-        <v>0.417842157842157</v>
+        <v>0.32332265875185501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>776</v>
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>911</v>
       </c>
       <c r="C8" s="6">
-        <v>776</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.83505154639175005</v>
+        <v>911</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.91767288693742999</v>
       </c>
       <c r="E8" s="8">
-        <v>0.83505154639175205</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.16494845360825</v>
+        <v>0.91877058177826498</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.2327113062568999E-2</v>
       </c>
       <c r="G8" s="8">
-        <v>0.164948453608247</v>
-      </c>
-      <c r="H8" s="2">
-        <v>336</v>
+        <v>8.1229418221734295E-2</v>
+      </c>
+      <c r="H8">
+        <v>261</v>
       </c>
       <c r="I8" s="6">
-        <v>336</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.63690476190475998</v>
+        <v>261</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.57088122605364</v>
       </c>
       <c r="K8" s="8">
-        <v>0.639880952380952</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.36309523809524002</v>
+        <v>0.57854406130268199</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.42911877394636</v>
       </c>
       <c r="M8" s="8">
-        <v>0.36011904761904701</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.19814678448699</v>
+        <v>0.42145593869731801</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.34679166088378999</v>
       </c>
       <c r="O8" s="8">
-        <v>0.1951705940108</v>
+        <v>0.34022652047558299</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1012</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>964</v>
       </c>
       <c r="C9" s="6">
-        <v>1012</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.91007905138339995</v>
+        <v>964</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.91597510373444002</v>
       </c>
       <c r="E9" s="8">
-        <v>0.91106719367588895</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8.9920948616601007E-2</v>
+        <v>0.91701244813278004</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8.4024896265560006E-2</v>
       </c>
       <c r="G9" s="8">
-        <v>8.89328063241107E-2</v>
-      </c>
-      <c r="H9">
-        <v>276</v>
+        <v>8.29875518672199E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>339</v>
       </c>
       <c r="I9" s="6">
-        <v>276</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.65942028985506995</v>
+        <v>339</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.70206489675516004</v>
       </c>
       <c r="K9" s="8">
-        <v>0.66304347826086896</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.34057971014492999</v>
+        <v>0.70501474926253604</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.29793510324484002</v>
       </c>
       <c r="M9" s="8">
-        <v>0.33695652173912999</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.25065876152833</v>
+        <v>0.29498525073746301</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.21391020697928001</v>
       </c>
       <c r="O9" s="8">
-        <v>0.248023715415019</v>
+        <v>0.211997698870243</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>491</v>
+        <v>273</v>
       </c>
       <c r="C10" s="6">
-        <v>491</v>
+        <v>273</v>
       </c>
       <c r="D10" s="1">
-        <v>0.65580448065173003</v>
+        <v>0.91208791208790996</v>
       </c>
       <c r="E10" s="8">
-        <v>0.65987780040733202</v>
+        <v>0.91575091575091505</v>
       </c>
       <c r="F10" s="1">
-        <v>0.34419551934826997</v>
+        <v>8.7912087912088002E-2</v>
       </c>
       <c r="G10" s="8">
-        <v>0.34012219959266798</v>
+        <v>8.42490842490842E-2</v>
       </c>
       <c r="H10">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I10" s="6">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
-        <v>0.29032258064515998</v>
+        <v>0.52631578947367996</v>
       </c>
       <c r="K10" s="8">
-        <v>0.31182795698924698</v>
+        <v>0.52631578947368396</v>
       </c>
       <c r="L10" s="1">
-        <v>0.70967741935483997</v>
+        <v>0.47368421052631998</v>
       </c>
       <c r="M10" s="8">
-        <v>0.68817204301075197</v>
+        <v>0.47368421052631499</v>
       </c>
       <c r="N10" s="1">
-        <v>0.36548190000656999</v>
+        <v>0.38577212261423</v>
       </c>
       <c r="O10" s="8">
-        <v>0.34804984341808398</v>
+        <v>0.38943512627723098</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>877</v>
       </c>
       <c r="C11" s="6">
-        <v>106</v>
+        <v>877</v>
       </c>
       <c r="D11" s="1">
-        <v>0.46226415094340001</v>
+        <v>0.91106043329532005</v>
       </c>
       <c r="E11" s="8">
-        <v>0.46226415094339601</v>
+        <v>0.91106043329532405</v>
       </c>
       <c r="F11" s="1">
-        <v>0.53773584905659999</v>
+        <v>8.8939566704674997E-2</v>
       </c>
       <c r="G11" s="8">
-        <v>0.53773584905660299</v>
+        <v>8.8939566704674997E-2</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I11" s="6">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="J11" s="1">
-        <v>7.6923076923076997E-2</v>
+        <v>0.57731958762887003</v>
       </c>
       <c r="K11" s="8">
-        <v>7.69230769230769E-2</v>
+        <v>0.58762886597938102</v>
       </c>
       <c r="L11" s="1">
-        <v>0.92307692307692002</v>
+        <v>0.42268041237113002</v>
       </c>
       <c r="M11" s="8">
-        <v>0.92307692307692302</v>
+        <v>0.41237113402061798</v>
       </c>
       <c r="N11" s="1">
-        <v>0.38534107402031997</v>
+        <v>0.33374084566646001</v>
       </c>
       <c r="O11" s="8">
-        <v>0.38534107402031897</v>
+        <v>0.32343156731594302</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2">
-        <v>431</v>
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1012</v>
       </c>
       <c r="C12" s="6">
-        <v>431</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.87470997679814</v>
+        <v>1012</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.91007905138339995</v>
       </c>
       <c r="E12" s="8">
-        <v>0.874709976798143</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.12529002320186</v>
+        <v>0.91106719367588895</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8.9920948616601007E-2</v>
       </c>
       <c r="G12" s="8">
-        <v>0.125290023201856</v>
-      </c>
-      <c r="H12" s="2">
-        <v>80</v>
+        <v>8.89328063241107E-2</v>
+      </c>
+      <c r="H12">
+        <v>276</v>
       </c>
       <c r="I12" s="6">
-        <v>80</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.625</v>
+        <v>276</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.65942028985506995</v>
       </c>
       <c r="K12" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.375</v>
+        <v>0.66304347826086896</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.34057971014492999</v>
       </c>
       <c r="M12" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.24970997679814</v>
+        <v>0.33695652173912999</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.25065876152833</v>
       </c>
       <c r="O12" s="8">
-        <v>0.249709976798143</v>
+        <v>0.248023715415019</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>1239</v>
+        <v>368</v>
       </c>
       <c r="C13" s="6">
-        <v>1239</v>
+        <v>368</v>
       </c>
       <c r="D13" s="1">
-        <v>0.91848264729620999</v>
+        <v>0.89945652173913004</v>
       </c>
       <c r="E13" s="8">
-        <v>0.92009685230024196</v>
+        <v>0.89945652173913004</v>
       </c>
       <c r="F13" s="1">
-        <v>8.1517352703792997E-2</v>
+        <v>0.10054347826087</v>
       </c>
       <c r="G13" s="8">
-        <v>7.9903147699757801E-2</v>
+        <v>0.100543478260869</v>
       </c>
       <c r="H13">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="I13" s="6">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="J13" s="1">
-        <v>0.59677419354839001</v>
+        <v>0.79245283018867996</v>
       </c>
       <c r="K13" s="8">
-        <v>0.59677419354838701</v>
+        <v>0.80503144654087999</v>
       </c>
       <c r="L13" s="1">
-        <v>0.40322580645160999</v>
+        <v>0.20754716981131999</v>
       </c>
       <c r="M13" s="8">
-        <v>0.40322580645161199</v>
+        <v>0.19496855345911901</v>
       </c>
       <c r="N13" s="1">
-        <v>0.32170845374781998</v>
+        <v>0.10700369155045</v>
       </c>
       <c r="O13" s="8">
-        <v>0.32332265875185501</v>
+        <v>9.44250751982499E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>655</v>
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <v>616</v>
       </c>
       <c r="C14" s="6">
-        <v>655</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.67328244274809002</v>
+        <v>616</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.89772727272727004</v>
       </c>
       <c r="E14" s="8">
-        <v>0.67633587786259497</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.32671755725190998</v>
+        <v>0.89772727272727204</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.10227272727273</v>
       </c>
       <c r="G14" s="8">
-        <v>0.32366412213740398</v>
-      </c>
-      <c r="H14">
-        <v>61</v>
+        <v>0.102272727272727</v>
+      </c>
+      <c r="H14" s="2">
+        <v>90</v>
       </c>
       <c r="I14" s="6">
-        <v>61</v>
-      </c>
-      <c r="J14" s="1">
-        <v>9.8360655737704999E-2</v>
+        <v>90</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.7</v>
       </c>
       <c r="K14" s="8">
-        <v>9.8360655737704902E-2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.90163934426229997</v>
+        <v>0.7</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.3</v>
       </c>
       <c r="M14" s="8">
-        <v>0.90163934426229497</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.57492178701038998</v>
+        <v>0.3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.19772727272727</v>
       </c>
       <c r="O14" s="8">
-        <v>0.57797522212489005</v>
+        <v>0.197727272727272</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>877</v>
+        <v>643</v>
       </c>
       <c r="C15" s="6">
-        <v>877</v>
+        <v>643</v>
       </c>
       <c r="D15" s="1">
-        <v>0.91106043329532005</v>
+        <v>0.89113530326594004</v>
       </c>
       <c r="E15" s="8">
-        <v>0.91106043329532405</v>
+        <v>0.89113530326594004</v>
       </c>
       <c r="F15" s="1">
-        <v>8.8939566704674997E-2</v>
+        <v>0.10886469673406</v>
       </c>
       <c r="G15" s="8">
-        <v>8.8939566704674997E-2</v>
+        <v>0.108864696734059</v>
       </c>
       <c r="H15">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="I15" s="6">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="J15" s="1">
-        <v>0.57731958762887003</v>
+        <v>0.61904761904761996</v>
       </c>
       <c r="K15" s="8">
-        <v>0.58762886597938102</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="L15" s="1">
-        <v>0.42268041237113002</v>
+        <v>0.38095238095237999</v>
       </c>
       <c r="M15" s="8">
-        <v>0.41237113402061798</v>
+        <v>0.38095238095237999</v>
       </c>
       <c r="N15" s="1">
-        <v>0.33374084566646001</v>
+        <v>0.27208768421832003</v>
       </c>
       <c r="O15" s="8">
-        <v>0.32343156731594302</v>
+        <v>0.27208768421832102</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="C16" s="6">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="D16" s="1">
-        <v>0.81296758104737998</v>
+        <v>0.88667992047713995</v>
       </c>
       <c r="E16" s="8">
-        <v>0.81795511221945105</v>
+        <v>0.88667992047713695</v>
       </c>
       <c r="F16" s="1">
-        <v>0.18703241895261999</v>
+        <v>0.11332007952286</v>
       </c>
       <c r="G16" s="8">
-        <v>0.182044887780548</v>
+        <v>0.11332007952286199</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I16" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1">
-        <v>0.21052631578947001</v>
+        <v>0.42105263157895001</v>
       </c>
       <c r="K16" s="8">
-        <v>0.23684210526315699</v>
+        <v>0.42105263157894701</v>
       </c>
       <c r="L16" s="1">
-        <v>0.78947368421052999</v>
+        <v>0.57894736842104999</v>
       </c>
       <c r="M16" s="8">
-        <v>0.76315789473684204</v>
+        <v>0.57894736842105199</v>
       </c>
       <c r="N16" s="1">
-        <v>0.60244126525790997</v>
+        <v>0.46562728889818999</v>
       </c>
       <c r="O16" s="8">
-        <v>0.58111300695629298</v>
+        <v>0.465627288898189</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>508</v>
+        <v>944</v>
       </c>
       <c r="C17" s="6">
-        <v>508</v>
+        <v>944</v>
       </c>
       <c r="D17" s="1">
-        <v>0.81496062992125995</v>
+        <v>0.88453389830508</v>
       </c>
       <c r="E17" s="8">
-        <v>0.81889763779527502</v>
+        <v>0.88665254237288105</v>
       </c>
       <c r="F17" s="1">
-        <v>0.18503937007874</v>
+        <v>0.11546610169492</v>
       </c>
       <c r="G17" s="8">
-        <v>0.181102362204724</v>
+        <v>0.113347457627118</v>
       </c>
       <c r="H17">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="I17" s="6">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J17" s="1">
-        <v>0.36301369863013999</v>
+        <v>0.64393939393939004</v>
       </c>
       <c r="K17" s="8">
-        <v>0.36986301369863001</v>
+        <v>0.64393939393939303</v>
       </c>
       <c r="L17" s="1">
-        <v>0.63698630136986001</v>
+        <v>0.35606060606061002</v>
       </c>
       <c r="M17" s="8">
-        <v>0.63013698630136905</v>
+        <v>0.35606060606060602</v>
       </c>
       <c r="N17" s="1">
-        <v>0.45194693129112001</v>
+        <v>0.24059450436568999</v>
       </c>
       <c r="O17" s="8">
-        <v>0.44903462409664502</v>
+        <v>0.24271314843348701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4">
-        <v>812</v>
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>856</v>
       </c>
       <c r="C18" s="6">
-        <v>812</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.86330049261083996</v>
+        <v>856</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.88434579439252003</v>
       </c>
       <c r="E18" s="8">
-        <v>0.86453201970443305</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.13669950738916001</v>
+        <v>0.88668224299065401</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.11565420560748001</v>
       </c>
       <c r="G18" s="8">
-        <v>0.135467980295566</v>
-      </c>
-      <c r="H18" s="4">
-        <v>129</v>
+        <v>0.113317757009345</v>
+      </c>
+      <c r="H18">
+        <v>91</v>
       </c>
       <c r="I18" s="6">
-        <v>129</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0.58914728682171003</v>
+        <v>91</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.59340659340658997</v>
       </c>
       <c r="K18" s="8">
-        <v>0.59689922480620095</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.41085271317828997</v>
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.40659340659340998</v>
       </c>
       <c r="M18" s="8">
-        <v>0.403100775193798</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0.27415320578912999</v>
+        <v>0.40659340659340598</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.29093920098593001</v>
       </c>
       <c r="O18" s="8">
-        <v>0.267632794898232</v>
+        <v>0.29327564958405999</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2">
-        <v>964</v>
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>988</v>
       </c>
       <c r="C19" s="6">
-        <v>964</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.91597510373444002</v>
+        <v>988</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.88360323886640002</v>
       </c>
       <c r="E19" s="8">
-        <v>0.91701244813278004</v>
-      </c>
-      <c r="F19" s="3">
-        <v>8.4024896265560006E-2</v>
+        <v>0.88562753036437203</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.11639676113359999</v>
       </c>
       <c r="G19" s="8">
-        <v>8.29875518672199E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>339</v>
+        <v>0.114372469635627</v>
+      </c>
+      <c r="H19">
+        <v>119</v>
       </c>
       <c r="I19" s="6">
-        <v>339</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.70206489675516004</v>
+        <v>119</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.48739495798318999</v>
       </c>
       <c r="K19" s="8">
-        <v>0.70501474926253604</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.29793510324484002</v>
+        <v>0.48739495798319299</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.51260504201681001</v>
       </c>
       <c r="M19" s="8">
-        <v>0.29498525073746301</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0.21391020697928001</v>
+        <v>0.51260504201680601</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.39620828088319998</v>
       </c>
       <c r="O19" s="8">
-        <v>0.211997698870243</v>
+        <v>0.39823257238117898</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>1164</v>
+      <c r="A20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="2">
+        <v>514</v>
       </c>
       <c r="C20" s="6">
-        <v>1164</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.76546391752577003</v>
+        <v>514</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.88326848249027001</v>
       </c>
       <c r="E20" s="8">
-        <v>0.76890034364261095</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.23453608247423</v>
+        <v>0.88326848249027201</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.11673151750973</v>
       </c>
       <c r="G20" s="8">
-        <v>0.23109965635738799</v>
-      </c>
-      <c r="H20">
-        <v>127</v>
+        <v>0.116731517509727</v>
+      </c>
+      <c r="H20" s="2">
+        <v>117</v>
       </c>
       <c r="I20" s="6">
-        <v>127</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.21259842519684999</v>
+        <v>117</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.4017094017094</v>
       </c>
       <c r="K20" s="8">
-        <v>0.23622047244094399</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.78740157480314998</v>
+        <v>0.401709401709401</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.59829059829060005</v>
       </c>
       <c r="M20" s="8">
-        <v>0.76377952755905498</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.55286549232892002</v>
+        <v>0.59829059829059805</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.48155908078087001</v>
       </c>
       <c r="O20" s="8">
-        <v>0.53267987120166604</v>
+        <v>0.48155908078087001</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>1067</v>
+        <v>1454</v>
       </c>
       <c r="C21" s="6">
-        <v>1067</v>
+        <v>1454</v>
       </c>
       <c r="D21" s="1">
-        <v>0.68134957825678999</v>
+        <v>0.88308115543329002</v>
       </c>
       <c r="E21" s="8">
-        <v>0.683223992502343</v>
+        <v>0.88308115543328702</v>
       </c>
       <c r="F21" s="1">
-        <v>0.31865042174321001</v>
+        <v>0.11691884456671001</v>
       </c>
       <c r="G21" s="8">
-        <v>0.316776007497657</v>
+        <v>0.116918844566712</v>
       </c>
       <c r="H21">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="I21" s="6">
-        <v>179</v>
+        <v>431</v>
       </c>
       <c r="J21" s="1">
-        <v>0.25698324022345997</v>
+        <v>0.50812064965197001</v>
       </c>
       <c r="K21" s="8">
-        <v>0.25698324022346303</v>
+        <v>0.51276102088166997</v>
       </c>
       <c r="L21" s="1">
-        <v>0.74301675977654003</v>
+        <v>0.49187935034802999</v>
       </c>
       <c r="M21" s="8">
-        <v>0.74301675977653603</v>
+        <v>0.48723897911832897</v>
       </c>
       <c r="N21" s="1">
-        <v>0.42436633803333002</v>
+        <v>0.37496050578132001</v>
       </c>
       <c r="O21" s="8">
-        <v>0.42624075227887898</v>
+        <v>0.370320134551616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>562</v>
+        <v>970</v>
       </c>
       <c r="C22" s="6">
-        <v>562</v>
+        <v>970</v>
       </c>
       <c r="D22" s="1">
-        <v>0.87010676156583999</v>
+        <v>0.87835051546391996</v>
       </c>
       <c r="E22" s="8">
-        <v>0.870106761565836</v>
+        <v>0.88144329896907203</v>
       </c>
       <c r="F22" s="1">
-        <v>0.12989323843416001</v>
+        <v>0.12164948453608</v>
       </c>
       <c r="G22" s="8">
-        <v>0.12989323843416301</v>
+        <v>0.118556701030927</v>
       </c>
       <c r="H22">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="I22" s="6">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="J22" s="1">
-        <v>0.55865921787709005</v>
+        <v>0.49206349206348998</v>
       </c>
       <c r="K22" s="8">
-        <v>0.55865921787709405</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="1">
-        <v>0.44134078212291</v>
+        <v>0.50793650793651002</v>
       </c>
       <c r="M22" s="8">
-        <v>0.44134078212290501</v>
+        <v>0.5</v>
       </c>
       <c r="N22" s="1">
-        <v>0.31144754368874</v>
+        <v>0.38628702340042997</v>
       </c>
       <c r="O22" s="8">
-        <v>0.311447543688741</v>
+        <v>0.38144329896907198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B23">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C23" s="6">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D23" s="1">
-        <v>0.83684210526316005</v>
+        <v>0.87637362637363003</v>
       </c>
       <c r="E23" s="8">
-        <v>0.83947368421052604</v>
+        <v>0.879120879120879</v>
       </c>
       <c r="F23" s="1">
-        <v>0.16315789473684</v>
+        <v>0.12362637362637</v>
       </c>
       <c r="G23" s="8">
-        <v>0.16052631578947299</v>
+        <v>0.12087912087912001</v>
       </c>
       <c r="H23">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="I23" s="6">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1">
-        <v>0.49333333333333002</v>
+        <v>0.39506172839505999</v>
       </c>
       <c r="K23" s="8">
-        <v>0.49333333333333301</v>
+        <v>0.407407407407407</v>
       </c>
       <c r="L23" s="1">
-        <v>0.50666666666667004</v>
+        <v>0.60493827160493996</v>
       </c>
       <c r="M23" s="8">
-        <v>0.50666666666666604</v>
+        <v>0.592592592592592</v>
       </c>
       <c r="N23" s="1">
-        <v>0.34350877192981999</v>
+        <v>0.48131189797856</v>
       </c>
       <c r="O23" s="8">
-        <v>0.34614035087719203</v>
+        <v>0.471713471713471</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>531</v>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="4">
+        <v>572</v>
       </c>
       <c r="C24" s="6">
-        <v>531</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.83615819209039999</v>
+        <v>572</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.87587412587413005</v>
       </c>
       <c r="E24" s="8">
-        <v>0.83615819209039499</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.16384180790960001</v>
+        <v>0.88111888111888104</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.12412587412587001</v>
       </c>
       <c r="G24" s="8">
-        <v>0.16384180790960401</v>
-      </c>
-      <c r="H24">
-        <v>136</v>
+        <v>0.11888111888111801</v>
+      </c>
+      <c r="H24" s="4">
+        <v>220</v>
       </c>
       <c r="I24" s="6">
-        <v>136</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.66911764705882004</v>
+        <v>220</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.61818181818182005</v>
       </c>
       <c r="K24" s="8">
-        <v>0.66911764705882304</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.33088235294118001</v>
+        <v>0.61818181818181805</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.38181818181818</v>
       </c>
       <c r="M24" s="8">
-        <v>0.33088235294117602</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.16704054503157001</v>
+        <v>0.381818181818181</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.25769230769231</v>
       </c>
       <c r="O24" s="8">
-        <v>0.16704054503157101</v>
+        <v>0.26293706293706298</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
-        <v>508</v>
+        <v>431</v>
       </c>
       <c r="C25" s="6">
-        <v>508</v>
+        <v>431</v>
       </c>
       <c r="D25" s="3">
-        <v>0.74212598425196996</v>
+        <v>0.87470997679814</v>
       </c>
       <c r="E25" s="8">
-        <v>0.74212598425196796</v>
+        <v>0.874709976798143</v>
       </c>
       <c r="F25" s="3">
-        <v>0.25787401574802998</v>
+        <v>0.12529002320186</v>
       </c>
       <c r="G25" s="8">
-        <v>0.25787401574803098</v>
+        <v>0.125290023201856</v>
       </c>
       <c r="H25" s="2">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="I25" s="6">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="J25" s="3">
-        <v>0.41269841269841001</v>
+        <v>0.625</v>
       </c>
       <c r="K25" s="8">
-        <v>0.41269841269841201</v>
+        <v>0.625</v>
       </c>
       <c r="L25" s="3">
-        <v>0.58730158730158999</v>
+        <v>0.375</v>
       </c>
       <c r="M25" s="8">
-        <v>0.58730158730158699</v>
+        <v>0.375</v>
       </c>
       <c r="N25" s="3">
-        <v>0.32942757155356001</v>
+        <v>0.24970997679814</v>
       </c>
       <c r="O25" s="8">
-        <v>0.32942757155355501</v>
+        <v>0.249709976798143</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>875</v>
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2">
+        <v>214</v>
       </c>
       <c r="C26" s="6">
-        <v>875</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.75657142857143</v>
+        <v>214</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.87383177570092996</v>
       </c>
       <c r="E26" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.24342857142857</v>
+        <v>0.87383177570093395</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.12616822429906999</v>
       </c>
       <c r="G26" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="H26">
-        <v>95</v>
+        <v>0.12616822429906499</v>
+      </c>
+      <c r="H26" s="2">
+        <v>85</v>
       </c>
       <c r="I26" s="6">
-        <v>95</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.32631578947368001</v>
+        <v>85</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.45882352941176002</v>
       </c>
       <c r="K26" s="8">
-        <v>0.336842105263157</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.67368421052631999</v>
+        <v>0.45882352941176402</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.54117647058824003</v>
       </c>
       <c r="M26" s="8">
-        <v>0.66315789473684195</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.43025563909774001</v>
+        <v>0.54117647058823504</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.41500824628916999</v>
       </c>
       <c r="O26" s="8">
-        <v>0.42315789473684201</v>
+        <v>0.41500824628916999</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>410</v>
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2">
+        <v>425</v>
       </c>
       <c r="C27" s="6">
-        <v>410</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.76097560975610001</v>
+        <v>425</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.87294117647059</v>
       </c>
       <c r="E27" s="8">
-        <v>0.76341463414634103</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.23902439024389999</v>
+        <v>0.875294117647058</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.12705882352941</v>
       </c>
       <c r="G27" s="8">
-        <v>0.236585365853658</v>
-      </c>
-      <c r="H27">
-        <v>140</v>
+        <v>0.124705882352941</v>
+      </c>
+      <c r="H27" s="2">
+        <v>175</v>
       </c>
       <c r="I27" s="6">
-        <v>140</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.42857142857142999</v>
+        <v>175</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.68</v>
       </c>
       <c r="K27" s="8">
-        <v>0.435714285714285</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.57142857142856995</v>
+        <v>0.68</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.32</v>
       </c>
       <c r="M27" s="8">
-        <v>0.56428571428571395</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.33240418118467002</v>
+        <v>0.31999999999999901</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.19294117647059</v>
       </c>
       <c r="O27" s="8">
-        <v>0.32770034843205498</v>
+        <v>0.19529411764705801</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>630</v>
+        <v>562</v>
       </c>
       <c r="C28" s="6">
-        <v>630</v>
+        <v>562</v>
       </c>
       <c r="D28" s="1">
-        <v>0.79206349206349003</v>
+        <v>0.87010676156583999</v>
       </c>
       <c r="E28" s="8">
-        <v>0.79365079365079305</v>
+        <v>0.870106761565836</v>
       </c>
       <c r="F28" s="1">
-        <v>0.20793650793651</v>
+        <v>0.12989323843416001</v>
       </c>
       <c r="G28" s="8">
-        <v>0.206349206349206</v>
+        <v>0.12989323843416301</v>
       </c>
       <c r="H28">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="I28" s="6">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="J28" s="1">
-        <v>0.49748743718593003</v>
+        <v>0.55865921787709005</v>
       </c>
       <c r="K28" s="8">
-        <v>0.49748743718592903</v>
+        <v>0.55865921787709405</v>
       </c>
       <c r="L28" s="1">
-        <v>0.50251256281406997</v>
+        <v>0.44134078212291</v>
       </c>
       <c r="M28" s="8">
-        <v>0.50251256281406997</v>
+        <v>0.44134078212290501</v>
       </c>
       <c r="N28" s="1">
-        <v>0.29457605487756</v>
+        <v>0.31144754368874</v>
       </c>
       <c r="O28" s="8">
-        <v>0.29616335646486303</v>
+        <v>0.311447543688741</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>998</v>
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>812</v>
       </c>
       <c r="C29" s="6">
-        <v>998</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.56713426853707005</v>
+        <v>812</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.86330049261083996</v>
       </c>
       <c r="E29" s="8">
-        <v>0.56813627254509003</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.43286573146293</v>
+        <v>0.86453201970443305</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.13669950738916001</v>
       </c>
       <c r="G29" s="8">
-        <v>0.43186372745490897</v>
-      </c>
-      <c r="H29">
-        <v>156</v>
+        <v>0.135467980295566</v>
+      </c>
+      <c r="H29" s="4">
+        <v>129</v>
       </c>
       <c r="I29" s="6">
-        <v>156</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.27564102564102999</v>
+        <v>129</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.58914728682171003</v>
       </c>
       <c r="K29" s="8">
-        <v>0.27564102564102499</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.72435897435897001</v>
+        <v>0.59689922480620095</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.41085271317828997</v>
       </c>
       <c r="M29" s="8">
-        <v>0.72435897435897401</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.29149324289605</v>
+        <v>0.403100775193798</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.27415320578912999</v>
       </c>
       <c r="O29" s="8">
-        <v>0.29249524690406398</v>
+        <v>0.267632794898232</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B30">
-        <v>377</v>
+        <v>936</v>
       </c>
       <c r="C30" s="6">
-        <v>377</v>
+        <v>936</v>
       </c>
       <c r="D30" s="1">
-        <v>0.72413793103447999</v>
+        <v>0.86324786324785996</v>
       </c>
       <c r="E30" s="8">
-        <v>0.73474801061007899</v>
+        <v>0.86538461538461497</v>
       </c>
       <c r="F30" s="1">
-        <v>0.27586206896552001</v>
+        <v>0.13675213675214001</v>
       </c>
       <c r="G30" s="8">
-        <v>0.26525198938992001</v>
+        <v>0.134615384615384</v>
       </c>
       <c r="H30">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="I30" s="6">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="J30" s="1">
-        <v>0.36075949367089</v>
+        <v>0.50458715596329995</v>
       </c>
       <c r="K30" s="8">
-        <v>0.360759493670886</v>
+        <v>0.50458715596330195</v>
       </c>
       <c r="L30" s="1">
-        <v>0.63924050632911</v>
+        <v>0.4954128440367</v>
       </c>
       <c r="M30" s="8">
-        <v>0.639240506329114</v>
+        <v>0.495412844036697</v>
       </c>
       <c r="N30" s="1">
-        <v>0.36337843736359998</v>
+        <v>0.35866070728456001</v>
       </c>
       <c r="O30" s="8">
-        <v>0.37398851693919299</v>
+        <v>0.36079745942131197</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B31">
-        <v>1188</v>
+        <v>678</v>
       </c>
       <c r="C31" s="6">
-        <v>1188</v>
+        <v>678</v>
       </c>
       <c r="D31" s="1">
-        <v>0.48737373737374001</v>
+        <v>0.85103244837757996</v>
       </c>
       <c r="E31" s="8">
-        <v>0.48905723905723902</v>
+        <v>0.85103244837758096</v>
       </c>
       <c r="F31" s="1">
-        <v>0.51262626262625999</v>
+        <v>0.14896755162242001</v>
       </c>
       <c r="G31" s="8">
-        <v>0.51094276094276003</v>
+        <v>0.14896755162241801</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="I31" s="6">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="J31" s="1">
-        <v>0.1</v>
+        <v>0.57727272727273005</v>
       </c>
       <c r="K31" s="8">
-        <v>0.1</v>
+        <v>0.57727272727272705</v>
       </c>
       <c r="L31" s="1">
-        <v>0.9</v>
+        <v>0.42272727272727001</v>
       </c>
       <c r="M31" s="8">
-        <v>0.9</v>
+        <v>0.42272727272727201</v>
       </c>
       <c r="N31" s="1">
-        <v>0.38737373737373998</v>
+        <v>0.27375972110484997</v>
       </c>
       <c r="O31" s="8">
-        <v>0.38905723905723899</v>
+        <v>0.27375972110485303</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B32">
-        <v>654</v>
+        <v>937</v>
       </c>
       <c r="C32" s="6">
-        <v>654</v>
+        <v>937</v>
       </c>
       <c r="D32" s="1">
-        <v>0.68042813455657003</v>
+        <v>0.84951974386339002</v>
       </c>
       <c r="E32" s="8">
-        <v>0.68195718654434201</v>
+        <v>0.85058697972251796</v>
       </c>
       <c r="F32" s="1">
-        <v>0.31957186544343003</v>
+        <v>0.15048025613661001</v>
       </c>
       <c r="G32" s="8">
-        <v>0.31804281345565699</v>
+        <v>0.14941302027748099</v>
       </c>
       <c r="H32">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="I32" s="6">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="J32" s="1">
-        <v>0.25</v>
+        <v>0.53097345132743001</v>
       </c>
       <c r="K32" s="8">
-        <v>0.269230769230769</v>
+        <v>0.53097345132743301</v>
       </c>
       <c r="L32" s="1">
-        <v>0.75</v>
+        <v>0.46902654867256999</v>
       </c>
       <c r="M32" s="8">
-        <v>0.73076923076922995</v>
+        <v>0.46902654867256599</v>
       </c>
       <c r="N32" s="1">
-        <v>0.43042813455656997</v>
+        <v>0.31854629253596001</v>
       </c>
       <c r="O32" s="8">
-        <v>0.41272641731357301</v>
+        <v>0.319613528395084</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B33">
-        <v>1454</v>
+        <v>1300</v>
       </c>
       <c r="C33" s="6">
-        <v>1454</v>
+        <v>1300</v>
       </c>
       <c r="D33" s="1">
-        <v>0.88308115543329002</v>
+        <v>0.84615384615385003</v>
       </c>
       <c r="E33" s="8">
-        <v>0.88308115543328702</v>
+        <v>0.846923076923076</v>
       </c>
       <c r="F33" s="1">
-        <v>0.11691884456671001</v>
+        <v>0.15384615384615</v>
       </c>
       <c r="G33" s="8">
-        <v>0.116918844566712</v>
+        <v>0.153076923076923</v>
       </c>
       <c r="H33">
-        <v>431</v>
+        <v>177</v>
       </c>
       <c r="I33" s="6">
-        <v>431</v>
+        <v>177</v>
       </c>
       <c r="J33" s="1">
-        <v>0.50812064965197001</v>
+        <v>0.41242937853106998</v>
       </c>
       <c r="K33" s="8">
-        <v>0.51276102088166997</v>
+        <v>0.41242937853107298</v>
       </c>
       <c r="L33" s="1">
-        <v>0.49187935034802999</v>
+        <v>0.58757062146893002</v>
       </c>
       <c r="M33" s="8">
-        <v>0.48723897911832897</v>
+        <v>0.58757062146892602</v>
       </c>
       <c r="N33" s="1">
-        <v>0.37496050578132001</v>
+        <v>0.43372446762277</v>
       </c>
       <c r="O33" s="8">
-        <v>0.370320134551616</v>
+        <v>0.43449369839200302</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B34">
-        <v>701</v>
+        <v>996</v>
       </c>
       <c r="C34" s="6">
-        <v>701</v>
+        <v>996</v>
       </c>
       <c r="D34" s="1">
-        <v>0.56205420827388997</v>
+        <v>0.84538152610441997</v>
       </c>
       <c r="E34" s="8">
-        <v>0.57061340941512095</v>
+        <v>0.84638554216867401</v>
       </c>
       <c r="F34" s="1">
-        <v>0.43794579172610998</v>
+        <v>0.15461847389558001</v>
       </c>
       <c r="G34" s="8">
-        <v>0.42938659058487799</v>
+        <v>0.15361445783132499</v>
       </c>
       <c r="H34">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="I34" s="6">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="J34" s="1">
-        <v>0.16470588235294001</v>
+        <v>0.43564356435644003</v>
       </c>
       <c r="K34" s="8">
-        <v>0.16470588235294101</v>
+        <v>0.43564356435643498</v>
       </c>
       <c r="L34" s="1">
-        <v>0.83529411764705996</v>
+        <v>0.56435643564355997</v>
       </c>
       <c r="M34" s="8">
-        <v>0.83529411764705797</v>
+        <v>0.56435643564356397</v>
       </c>
       <c r="N34" s="1">
-        <v>0.39734832592094999</v>
+        <v>0.40973796174798</v>
       </c>
       <c r="O34" s="8">
-        <v>0.40590752706217997</v>
+        <v>0.41074197781223898</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B35">
-        <v>717</v>
+        <v>430</v>
       </c>
       <c r="C35" s="6">
-        <v>717</v>
+        <v>430</v>
       </c>
       <c r="D35" s="1">
-        <v>0.58158995815900005</v>
+        <v>0.84418604651162998</v>
       </c>
       <c r="E35" s="8">
-        <v>0.58856345885634498</v>
+        <v>0.84651162790697598</v>
       </c>
       <c r="F35" s="1">
-        <v>0.418410041841</v>
+        <v>0.15581395348836999</v>
       </c>
       <c r="G35" s="8">
-        <v>0.41143654114365402</v>
+        <v>0.15348837209302299</v>
       </c>
       <c r="H35">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="I35" s="6">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="J35" s="1">
-        <v>0.16216216216216001</v>
+        <v>0.31034482758621001</v>
       </c>
       <c r="K35" s="8">
-        <v>0.162162162162162</v>
+        <v>0.31034482758620602</v>
       </c>
       <c r="L35" s="1">
-        <v>0.83783783783784005</v>
+        <v>0.68965517241379004</v>
       </c>
       <c r="M35" s="8">
-        <v>0.83783783783783705</v>
+        <v>0.68965517241379304</v>
       </c>
       <c r="N35" s="1">
-        <v>0.41942779599683</v>
+        <v>0.53384121892542002</v>
       </c>
       <c r="O35" s="8">
-        <v>0.42640129669418297</v>
+        <v>0.53616680032076902</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B36">
-        <v>824</v>
+        <v>744</v>
       </c>
       <c r="C36" s="6">
-        <v>824</v>
+        <v>744</v>
       </c>
       <c r="D36" s="1">
-        <v>0.78276699029125996</v>
+        <v>0.84139784946236995</v>
       </c>
       <c r="E36" s="8">
-        <v>0.78519417475728104</v>
+        <v>0.84139784946236496</v>
       </c>
       <c r="F36" s="1">
-        <v>0.21723300970873999</v>
+        <v>0.15860215053762999</v>
       </c>
       <c r="G36" s="8">
-        <v>0.21480582524271799</v>
+        <v>0.15860215053763399</v>
       </c>
       <c r="H36">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I36" s="6">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J36" s="1">
-        <v>0.31884057971014002</v>
+        <v>0.57777777777778005</v>
       </c>
       <c r="K36" s="8">
-        <v>0.33333333333333298</v>
+        <v>0.57777777777777695</v>
       </c>
       <c r="L36" s="1">
-        <v>0.68115942028985998</v>
+        <v>0.42222222222222</v>
       </c>
       <c r="M36" s="8">
-        <v>0.66666666666666596</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="N36" s="1">
-        <v>0.46392641058112</v>
+        <v>0.26362007168459001</v>
       </c>
       <c r="O36" s="8">
-        <v>0.451860841423948</v>
+        <v>0.26362007168458701</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B37">
-        <v>911</v>
+        <v>792</v>
       </c>
       <c r="C37" s="6">
-        <v>911</v>
+        <v>792</v>
       </c>
       <c r="D37" s="1">
-        <v>0.91767288693742999</v>
+        <v>0.84090909090909005</v>
       </c>
       <c r="E37" s="8">
-        <v>0.91877058177826498</v>
+        <v>0.84469696969696895</v>
       </c>
       <c r="F37" s="1">
-        <v>8.2327113062568999E-2</v>
+        <v>0.15909090909091</v>
       </c>
       <c r="G37" s="8">
-        <v>8.1229418221734295E-2</v>
+        <v>0.15530303030303</v>
       </c>
       <c r="H37">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="I37" s="6">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="J37" s="1">
-        <v>0.57088122605364</v>
+        <v>0.68627450980392002</v>
       </c>
       <c r="K37" s="8">
-        <v>0.57854406130268199</v>
+        <v>0.68627450980392102</v>
       </c>
       <c r="L37" s="1">
-        <v>0.42911877394636</v>
+        <v>0.31372549019607998</v>
       </c>
       <c r="M37" s="8">
-        <v>0.42145593869731801</v>
+        <v>0.31372549019607798</v>
       </c>
       <c r="N37" s="1">
-        <v>0.34679166088378999</v>
+        <v>0.15463458110517</v>
       </c>
       <c r="O37" s="8">
-        <v>0.34022652047558299</v>
+        <v>0.15842245989304801</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="C38" s="6">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="D38" s="1">
-        <v>0.92434210526315996</v>
+        <v>0.83684210526316005</v>
       </c>
       <c r="E38" s="8">
-        <v>0.92763157894736803</v>
+        <v>0.83947368421052604</v>
       </c>
       <c r="F38" s="1">
-        <v>7.5657894736841994E-2</v>
+        <v>0.16315789473684</v>
       </c>
       <c r="G38" s="8">
-        <v>7.2368421052631499E-2</v>
+        <v>0.16052631578947299</v>
       </c>
       <c r="H38">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="I38" s="6">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="J38" s="1">
-        <v>0.72357723577235999</v>
+        <v>0.49333333333333002</v>
       </c>
       <c r="K38" s="8">
-        <v>0.723577235772357</v>
+        <v>0.49333333333333301</v>
       </c>
       <c r="L38" s="1">
-        <v>0.27642276422764001</v>
+        <v>0.50666666666667004</v>
       </c>
       <c r="M38" s="8">
-        <v>0.276422764227642</v>
+        <v>0.50666666666666604</v>
       </c>
       <c r="N38" s="1">
-        <v>0.2007648694908</v>
+        <v>0.34350877192981999</v>
       </c>
       <c r="O38" s="8">
-        <v>0.20405434317501001</v>
+        <v>0.34614035087719203</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>296</v>
+        <v>531</v>
       </c>
       <c r="C39" s="6">
-        <v>296</v>
+        <v>531</v>
       </c>
       <c r="D39" s="1">
-        <v>0.65540540540541004</v>
+        <v>0.83615819209039999</v>
       </c>
       <c r="E39" s="8">
-        <v>0.66216216216216195</v>
+        <v>0.83615819209039499</v>
       </c>
       <c r="F39" s="1">
-        <v>0.34459459459459002</v>
+        <v>0.16384180790960001</v>
       </c>
       <c r="G39" s="8">
-        <v>0.337837837837837</v>
+        <v>0.16384180790960401</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="I39" s="6">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="J39" s="1">
-        <v>0.21249999999999999</v>
+        <v>0.66911764705882004</v>
       </c>
       <c r="K39" s="8">
-        <v>0.21249999999999999</v>
+        <v>0.66911764705882304</v>
       </c>
       <c r="L39" s="1">
-        <v>0.78749999999999998</v>
+        <v>0.33088235294118001</v>
       </c>
       <c r="M39" s="8">
-        <v>0.78749999999999998</v>
+        <v>0.33088235294117602</v>
       </c>
       <c r="N39" s="1">
-        <v>0.44290540540541001</v>
+        <v>0.16704054503157001</v>
       </c>
       <c r="O39" s="8">
-        <v>0.44966216216216198</v>
+        <v>0.16704054503157101</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>1342</v>
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2">
+        <v>776</v>
       </c>
       <c r="C40" s="6">
-        <v>1342</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.79955290611027996</v>
+        <v>776</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.83505154639175005</v>
       </c>
       <c r="E40" s="8">
-        <v>0.80253353204172795</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.20044709388972001</v>
+        <v>0.83505154639175205</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.16494845360825</v>
       </c>
       <c r="G40" s="8">
-        <v>0.197466467958271</v>
-      </c>
-      <c r="H40">
-        <v>168</v>
+        <v>0.164948453608247</v>
+      </c>
+      <c r="H40" s="2">
+        <v>336</v>
       </c>
       <c r="I40" s="6">
-        <v>168</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.38095238095237999</v>
+        <v>336</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.63690476190475998</v>
       </c>
       <c r="K40" s="8">
-        <v>0.38690476190476097</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.61904761904761996</v>
+        <v>0.639880952380952</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.36309523809524002</v>
       </c>
       <c r="M40" s="8">
-        <v>0.61309523809523803</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0.41860052515790003</v>
+        <v>0.36011904761904701</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.19814678448699</v>
       </c>
       <c r="O40" s="8">
-        <v>0.41562877013696597</v>
+        <v>0.1951705940108</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B41">
-        <v>397</v>
+        <v>1012</v>
       </c>
       <c r="C41" s="6">
-        <v>397</v>
+        <v>1012</v>
       </c>
       <c r="D41" s="1">
-        <v>0.80604534005037998</v>
+        <v>0.81620553359684</v>
       </c>
       <c r="E41" s="8">
-        <v>0.811083123425692</v>
+        <v>0.81916996047430801</v>
       </c>
       <c r="F41" s="1">
-        <v>0.19395465994962</v>
+        <v>0.18379446640316</v>
       </c>
       <c r="G41" s="8">
-        <v>0.188916876574307</v>
+        <v>0.18083003952569099</v>
       </c>
       <c r="H41">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="I41" s="6">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="J41" s="1">
-        <v>0.45794392523364003</v>
+        <v>0.59854014598539995</v>
       </c>
       <c r="K41" s="8">
-        <v>0.45794392523364402</v>
+        <v>0.59854014598540095</v>
       </c>
       <c r="L41" s="1">
-        <v>0.54205607476635997</v>
+        <v>0.40145985401459999</v>
       </c>
       <c r="M41" s="8">
-        <v>0.54205607476635498</v>
+        <v>0.40145985401459799</v>
       </c>
       <c r="N41" s="1">
-        <v>0.34810141481673001</v>
+        <v>0.21766538761144</v>
       </c>
       <c r="O41" s="8">
-        <v>0.35313919819204698</v>
+        <v>0.22062981448890601</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="2" customFormat="1">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>579</v>
+        <v>508</v>
       </c>
       <c r="C42" s="6">
-        <v>579</v>
+        <v>508</v>
       </c>
       <c r="D42" s="1">
-        <v>0.49568221070812002</v>
+        <v>0.81496062992125995</v>
       </c>
       <c r="E42" s="8">
-        <v>0.50259067357512899</v>
+        <v>0.81889763779527502</v>
       </c>
       <c r="F42" s="1">
-        <v>0.50431778929187998</v>
+        <v>0.18503937007874</v>
       </c>
       <c r="G42" s="8">
-        <v>0.49740932642487001</v>
+        <v>0.181102362204724</v>
       </c>
       <c r="H42">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="I42" s="6">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="J42" s="1">
-        <v>0.15760869565217001</v>
+        <v>0.36301369863013999</v>
       </c>
       <c r="K42" s="8">
-        <v>0.157608695652173</v>
+        <v>0.36986301369863001</v>
       </c>
       <c r="L42" s="1">
-        <v>0.84239130434783005</v>
+        <v>0.63698630136986001</v>
       </c>
       <c r="M42" s="8">
-        <v>0.84239130434782605</v>
+        <v>0.63013698630136905</v>
       </c>
       <c r="N42" s="1">
-        <v>0.33807351505594002</v>
+        <v>0.45194693129112001</v>
       </c>
       <c r="O42" s="8">
-        <v>0.34498197792295499</v>
+        <v>0.44903462409664502</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>120</v>
@@ -2774,3344 +2774,3344 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>679</v>
+        <v>401</v>
       </c>
       <c r="C43" s="6">
-        <v>679</v>
+        <v>401</v>
       </c>
       <c r="D43" s="1">
-        <v>0.58910162002945998</v>
+        <v>0.81296758104737998</v>
       </c>
       <c r="E43" s="8">
-        <v>0.58910162002945499</v>
+        <v>0.81795511221945105</v>
       </c>
       <c r="F43" s="1">
-        <v>0.41089837997054002</v>
+        <v>0.18703241895261999</v>
       </c>
       <c r="G43" s="8">
-        <v>0.41089837997054401</v>
+        <v>0.182044887780548</v>
       </c>
       <c r="H43">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="I43" s="6">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1">
-        <v>0.26363636363636</v>
+        <v>0.21052631578947001</v>
       </c>
       <c r="K43" s="8">
-        <v>0.27272727272727199</v>
+        <v>0.23684210526315699</v>
       </c>
       <c r="L43" s="1">
-        <v>0.73636363636364</v>
+        <v>0.78947368421052999</v>
       </c>
       <c r="M43" s="8">
-        <v>0.72727272727272696</v>
+        <v>0.76315789473684204</v>
       </c>
       <c r="N43" s="1">
-        <v>0.32546525639308999</v>
+        <v>0.60244126525790997</v>
       </c>
       <c r="O43" s="8">
-        <v>0.316374347302182</v>
+        <v>0.58111300695629298</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B44">
-        <v>654</v>
+        <v>1752</v>
       </c>
       <c r="C44" s="6">
-        <v>654</v>
+        <v>1752</v>
       </c>
       <c r="D44" s="1">
-        <v>0.40672782874618002</v>
+        <v>0.81107305936073004</v>
       </c>
       <c r="E44" s="8">
-        <v>0.40825688073394401</v>
+        <v>0.81335616438356095</v>
       </c>
       <c r="F44" s="1">
-        <v>0.59327217125382004</v>
+        <v>0.18892694063927001</v>
       </c>
       <c r="G44" s="8">
-        <v>0.59174311926605505</v>
+        <v>0.18664383561643799</v>
       </c>
       <c r="H44">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="I44" s="6">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="J44" s="1">
-        <v>0.33846153846153998</v>
+        <v>0.41129032258065001</v>
       </c>
       <c r="K44" s="8">
-        <v>0.33846153846153798</v>
+        <v>0.41129032258064502</v>
       </c>
       <c r="L44" s="1">
-        <v>0.66153846153845997</v>
+        <v>0.58870967741934999</v>
       </c>
       <c r="M44" s="8">
-        <v>0.66153846153846096</v>
+        <v>0.58870967741935398</v>
       </c>
       <c r="N44" s="1">
-        <v>6.8266290284639E-2</v>
+        <v>0.39978273678009002</v>
       </c>
       <c r="O44" s="8">
-        <v>6.9795342272406399E-2</v>
+        <v>0.40206584180291599</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="C45" s="6">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="D45" s="1">
-        <v>0.65125240847784005</v>
+        <v>0.80877192982456003</v>
       </c>
       <c r="E45" s="8">
-        <v>0.65510597302504803</v>
+        <v>0.81052631578947298</v>
       </c>
       <c r="F45" s="1">
-        <v>0.34874759152216001</v>
+        <v>0.19122807017544</v>
       </c>
       <c r="G45" s="8">
-        <v>0.34489402697495097</v>
+        <v>0.18947368421052599</v>
       </c>
       <c r="H45">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="I45" s="6">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="J45" s="1">
-        <v>0.15428571428571</v>
+        <v>0.66019417475728004</v>
       </c>
       <c r="K45" s="8">
-        <v>0.16</v>
+        <v>0.66504854368931998</v>
       </c>
       <c r="L45" s="1">
-        <v>0.84571428571428997</v>
+        <v>0.33980582524272002</v>
       </c>
       <c r="M45" s="8">
-        <v>0.84</v>
+        <v>0.33495145631067902</v>
       </c>
       <c r="N45" s="1">
-        <v>0.49696669419213002</v>
+        <v>0.14857775506727999</v>
       </c>
       <c r="O45" s="8">
-        <v>0.495105973025048</v>
+        <v>0.145477772100153</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B46">
-        <v>818</v>
+        <v>645</v>
       </c>
       <c r="C46" s="6">
-        <v>818</v>
+        <v>645</v>
       </c>
       <c r="D46" s="1">
-        <v>0.69193154034229998</v>
+        <v>0.80775193798449996</v>
       </c>
       <c r="E46" s="8">
-        <v>0.70048899755501204</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="F46" s="1">
-        <v>0.30806845965770002</v>
+        <v>0.19224806201549999</v>
       </c>
       <c r="G46" s="8">
-        <v>0.29951100244498702</v>
+        <v>0.186046511627906</v>
       </c>
       <c r="H46">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="I46" s="6">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="J46" s="1">
-        <v>0.20731707317073</v>
+        <v>0.52884615384614997</v>
       </c>
       <c r="K46" s="8">
-        <v>0.207317073170731</v>
+        <v>0.52884615384615297</v>
       </c>
       <c r="L46" s="1">
-        <v>0.79268292682927</v>
+        <v>0.47115384615384998</v>
       </c>
       <c r="M46" s="8">
-        <v>0.792682926829268</v>
+        <v>0.47115384615384598</v>
       </c>
       <c r="N46" s="1">
-        <v>0.48461446717156997</v>
+        <v>0.27890578413834</v>
       </c>
       <c r="O46" s="8">
-        <v>0.49317192438427998</v>
+        <v>0.285107334525939</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>879</v>
+        <v>397</v>
       </c>
       <c r="C47" s="6">
-        <v>879</v>
+        <v>397</v>
       </c>
       <c r="D47" s="1">
-        <v>0.59271899886234003</v>
+        <v>0.80604534005037998</v>
       </c>
       <c r="E47" s="8">
-        <v>0.59613196814561997</v>
+        <v>0.811083123425692</v>
       </c>
       <c r="F47" s="1">
-        <v>0.40728100113766003</v>
+        <v>0.19395465994962</v>
       </c>
       <c r="G47" s="8">
-        <v>0.40386803185438003</v>
+        <v>0.188916876574307</v>
       </c>
       <c r="H47">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="I47" s="6">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="J47" s="1">
-        <v>0.13793103448276001</v>
+        <v>0.45794392523364003</v>
       </c>
       <c r="K47" s="8">
-        <v>0.13793103448275801</v>
+        <v>0.45794392523364402</v>
       </c>
       <c r="L47" s="1">
-        <v>0.86206896551723999</v>
+        <v>0.54205607476635997</v>
       </c>
       <c r="M47" s="8">
-        <v>0.86206896551724099</v>
+        <v>0.54205607476635498</v>
       </c>
       <c r="N47" s="1">
-        <v>0.45478796437958002</v>
+        <v>0.34810141481673001</v>
       </c>
       <c r="O47" s="8">
-        <v>0.45820093366286102</v>
+        <v>0.35313919819204698</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>996</v>
+        <v>1342</v>
       </c>
       <c r="C48" s="6">
-        <v>996</v>
+        <v>1342</v>
       </c>
       <c r="D48" s="1">
-        <v>0.84538152610441997</v>
+        <v>0.79955290611027996</v>
       </c>
       <c r="E48" s="8">
-        <v>0.84638554216867401</v>
+        <v>0.80253353204172795</v>
       </c>
       <c r="F48" s="1">
-        <v>0.15461847389558001</v>
+        <v>0.20044709388972001</v>
       </c>
       <c r="G48" s="8">
-        <v>0.15361445783132499</v>
+        <v>0.197466467958271</v>
       </c>
       <c r="H48">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="I48" s="6">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="J48" s="1">
-        <v>0.43564356435644003</v>
+        <v>0.38095238095237999</v>
       </c>
       <c r="K48" s="8">
-        <v>0.43564356435643498</v>
+        <v>0.38690476190476097</v>
       </c>
       <c r="L48" s="1">
-        <v>0.56435643564355997</v>
+        <v>0.61904761904761996</v>
       </c>
       <c r="M48" s="8">
-        <v>0.56435643564356397</v>
+        <v>0.61309523809523803</v>
       </c>
       <c r="N48" s="1">
-        <v>0.40973796174798</v>
+        <v>0.41860052515790003</v>
       </c>
       <c r="O48" s="8">
-        <v>0.41074197781223898</v>
+        <v>0.41562877013696597</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B49">
-        <v>988</v>
+        <v>630</v>
       </c>
       <c r="C49" s="6">
-        <v>988</v>
+        <v>630</v>
       </c>
       <c r="D49" s="1">
-        <v>0.88360323886640002</v>
+        <v>0.79206349206349003</v>
       </c>
       <c r="E49" s="8">
-        <v>0.88562753036437203</v>
+        <v>0.79365079365079305</v>
       </c>
       <c r="F49" s="1">
-        <v>0.11639676113359999</v>
+        <v>0.20793650793651</v>
       </c>
       <c r="G49" s="8">
-        <v>0.114372469635627</v>
+        <v>0.206349206349206</v>
       </c>
       <c r="H49">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="I49" s="6">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="J49" s="1">
-        <v>0.48739495798318999</v>
+        <v>0.49748743718593003</v>
       </c>
       <c r="K49" s="8">
-        <v>0.48739495798319299</v>
+        <v>0.49748743718592903</v>
       </c>
       <c r="L49" s="1">
-        <v>0.51260504201681001</v>
+        <v>0.50251256281406997</v>
       </c>
       <c r="M49" s="8">
-        <v>0.51260504201680601</v>
+        <v>0.50251256281406997</v>
       </c>
       <c r="N49" s="1">
-        <v>0.39620828088319998</v>
+        <v>0.29457605487756</v>
       </c>
       <c r="O49" s="8">
-        <v>0.39823257238117898</v>
+        <v>0.29616335646486303</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B50">
-        <v>495</v>
+        <v>1031</v>
       </c>
       <c r="C50" s="6">
-        <v>495</v>
+        <v>1031</v>
       </c>
       <c r="D50" s="1">
-        <v>0.64646464646464996</v>
+        <v>0.78952473326867001</v>
       </c>
       <c r="E50" s="8">
-        <v>0.648484848484848</v>
+        <v>0.79243452958292904</v>
       </c>
       <c r="F50" s="1">
-        <v>0.35353535353534998</v>
+        <v>0.21047526673132999</v>
       </c>
       <c r="G50" s="8">
-        <v>0.351515151515151</v>
+        <v>0.20756547041706999</v>
       </c>
       <c r="H50">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="I50" s="6">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="J50" s="1">
-        <v>0.29496402877698003</v>
+        <v>0.43548387096773999</v>
       </c>
       <c r="K50" s="8">
-        <v>0.29496402877697803</v>
+        <v>0.44623655913978399</v>
       </c>
       <c r="L50" s="1">
-        <v>0.70503597122301997</v>
+        <v>0.56451612903226001</v>
       </c>
       <c r="M50" s="8">
-        <v>0.70503597122302097</v>
+        <v>0.55376344086021501</v>
       </c>
       <c r="N50" s="1">
-        <v>0.35150061768766999</v>
+        <v>0.35404086230093001</v>
       </c>
       <c r="O50" s="8">
-        <v>0.35352081970787003</v>
+        <v>0.34619797044314399</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B51">
-        <v>901</v>
+        <v>1155</v>
       </c>
       <c r="C51" s="6">
-        <v>901</v>
+        <v>1155</v>
       </c>
       <c r="D51" s="1">
-        <v>0.72697003329634002</v>
+        <v>0.78787878787878995</v>
       </c>
       <c r="E51" s="8">
-        <v>0.72697003329633703</v>
+        <v>0.79220779220779203</v>
       </c>
       <c r="F51" s="1">
-        <v>0.27302996670365998</v>
+        <v>0.21212121212120999</v>
       </c>
       <c r="G51" s="8">
-        <v>0.27302996670366197</v>
+        <v>0.207792207792207</v>
       </c>
       <c r="H51">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="I51" s="6">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J51" s="1">
-        <v>0.24096385542168999</v>
+        <v>0.46927374301676</v>
       </c>
       <c r="K51" s="8">
-        <v>0.240963855421686</v>
+        <v>0.469273743016759</v>
       </c>
       <c r="L51" s="1">
-        <v>0.75903614457831003</v>
+        <v>0.53072625698324005</v>
       </c>
       <c r="M51" s="8">
-        <v>0.75903614457831303</v>
+        <v>0.53072625698324005</v>
       </c>
       <c r="N51" s="1">
-        <v>0.48600617787465</v>
+        <v>0.31860504486203001</v>
       </c>
       <c r="O51" s="8">
-        <v>0.48600617787465</v>
+        <v>0.32293404919103202</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>1196</v>
+        <v>824</v>
       </c>
       <c r="C52" s="6">
-        <v>1196</v>
+        <v>824</v>
       </c>
       <c r="D52" s="1">
-        <v>0.72157190635451995</v>
+        <v>0.78276699029125996</v>
       </c>
       <c r="E52" s="8">
-        <v>0.72324414715718999</v>
+        <v>0.78519417475728104</v>
       </c>
       <c r="F52" s="1">
-        <v>0.27842809364547999</v>
+        <v>0.21723300970873999</v>
       </c>
       <c r="G52" s="8">
-        <v>0.27675585284280901</v>
+        <v>0.21480582524271799</v>
       </c>
       <c r="H52">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="I52" s="6">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="J52" s="1">
-        <v>0.21546961325967001</v>
+        <v>0.31884057971014002</v>
       </c>
       <c r="K52" s="8">
-        <v>0.22099447513812101</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L52" s="1">
-        <v>0.78453038674033004</v>
+        <v>0.68115942028985998</v>
       </c>
       <c r="M52" s="8">
-        <v>0.77900552486187802</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="N52" s="1">
-        <v>0.50610229309485</v>
+        <v>0.46392641058112</v>
       </c>
       <c r="O52" s="8">
-        <v>0.502249672019069</v>
+        <v>0.451860841423948</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B53">
-        <v>570</v>
+        <v>933</v>
       </c>
       <c r="C53" s="6">
-        <v>570</v>
+        <v>933</v>
       </c>
       <c r="D53" s="1">
-        <v>0.80877192982456003</v>
+        <v>0.77920685959270997</v>
       </c>
       <c r="E53" s="8">
-        <v>0.81052631578947298</v>
+        <v>0.782422293676313</v>
       </c>
       <c r="F53" s="1">
-        <v>0.19122807017544</v>
+        <v>0.22079314040729001</v>
       </c>
       <c r="G53" s="8">
-        <v>0.18947368421052599</v>
+        <v>0.217577706323687</v>
       </c>
       <c r="H53">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="I53" s="6">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="J53" s="1">
-        <v>0.66019417475728004</v>
+        <v>0.25</v>
       </c>
       <c r="K53" s="8">
-        <v>0.66504854368931998</v>
+        <v>0.25</v>
       </c>
       <c r="L53" s="1">
-        <v>0.33980582524272002</v>
+        <v>0.75</v>
       </c>
       <c r="M53" s="8">
-        <v>0.33495145631067902</v>
+        <v>0.75</v>
       </c>
       <c r="N53" s="1">
-        <v>0.14857775506727999</v>
+        <v>0.52920685959270997</v>
       </c>
       <c r="O53" s="8">
-        <v>0.145477772100153</v>
+        <v>0.532422293676313</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C54" s="6">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D54" s="1">
-        <v>0.85103244837757996</v>
+        <v>0.76888888888888995</v>
       </c>
       <c r="E54" s="8">
-        <v>0.85103244837758096</v>
+        <v>0.77037037037037004</v>
       </c>
       <c r="F54" s="1">
-        <v>0.14896755162242001</v>
+        <v>0.23111111111110999</v>
       </c>
       <c r="G54" s="8">
-        <v>0.14896755162241801</v>
+        <v>0.22962962962962899</v>
       </c>
       <c r="H54">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="I54" s="6">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="J54" s="1">
-        <v>0.57727272727273005</v>
+        <v>0.3879781420765</v>
       </c>
       <c r="K54" s="8">
-        <v>0.57727272727272705</v>
+        <v>0.393442622950819</v>
       </c>
       <c r="L54" s="1">
-        <v>0.42272727272727001</v>
+        <v>0.61202185792349995</v>
       </c>
       <c r="M54" s="8">
-        <v>0.42272727272727201</v>
+        <v>0.60655737704918</v>
       </c>
       <c r="N54" s="1">
-        <v>0.27375972110484997</v>
+        <v>0.38091074681239001</v>
       </c>
       <c r="O54" s="8">
-        <v>0.27375972110485303</v>
+        <v>0.37692774741954999</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B55">
-        <v>970</v>
+        <v>614</v>
       </c>
       <c r="C55" s="6">
-        <v>970</v>
+        <v>614</v>
       </c>
       <c r="D55" s="1">
-        <v>0.87835051546391996</v>
+        <v>0.76872964169380997</v>
       </c>
       <c r="E55" s="8">
-        <v>0.88144329896907203</v>
+        <v>0.77035830618892498</v>
       </c>
       <c r="F55" s="1">
-        <v>0.12164948453608</v>
+        <v>0.23127035830619</v>
       </c>
       <c r="G55" s="8">
-        <v>0.118556701030927</v>
+        <v>0.22964169381107399</v>
       </c>
       <c r="H55">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="I55" s="6">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="J55" s="1">
-        <v>0.49206349206348998</v>
+        <v>0.26174496644294998</v>
       </c>
       <c r="K55" s="8">
-        <v>0.5</v>
+        <v>0.26174496644295298</v>
       </c>
       <c r="L55" s="1">
-        <v>0.50793650793651002</v>
+        <v>0.73825503355705002</v>
       </c>
       <c r="M55" s="8">
-        <v>0.5</v>
+        <v>0.73825503355704702</v>
       </c>
       <c r="N55" s="1">
-        <v>0.38628702340042997</v>
+        <v>0.50698467525086</v>
       </c>
       <c r="O55" s="8">
-        <v>0.38144329896907198</v>
+        <v>0.508613339745972</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="2">
-        <v>616</v>
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>2870</v>
       </c>
       <c r="C56" s="6">
-        <v>616</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.89772727272727004</v>
+        <v>2870</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.76794425087107998</v>
       </c>
       <c r="E56" s="8">
-        <v>0.89772727272727204</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.10227272727273</v>
+        <v>0.76933797909407597</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.23205574912891999</v>
       </c>
       <c r="G56" s="8">
-        <v>0.102272727272727</v>
-      </c>
-      <c r="H56" s="2">
-        <v>90</v>
+        <v>0.230662020905923</v>
+      </c>
+      <c r="H56">
+        <v>386</v>
       </c>
       <c r="I56" s="6">
-        <v>90</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0.7</v>
+        <v>386</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.36269430051813001</v>
       </c>
       <c r="K56" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="L56" s="3">
-        <v>0.3</v>
+        <v>0.36787564766839298</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.63730569948186999</v>
       </c>
       <c r="M56" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0.19772727272727</v>
+        <v>0.63212435233160602</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.40524995035294997</v>
       </c>
       <c r="O56" s="8">
-        <v>0.197727272727272</v>
+        <v>0.401462331425682</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B57">
-        <v>500</v>
+        <v>1164</v>
       </c>
       <c r="C57" s="6">
-        <v>500</v>
+        <v>1164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.60599999999999998</v>
+        <v>0.76546391752577003</v>
       </c>
       <c r="E57" s="8">
-        <v>0.61199999999999999</v>
+        <v>0.76890034364261095</v>
       </c>
       <c r="F57" s="1">
-        <v>0.39400000000000002</v>
+        <v>0.23453608247423</v>
       </c>
       <c r="G57" s="8">
-        <v>0.38800000000000001</v>
+        <v>0.23109965635738799</v>
       </c>
       <c r="H57">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="I57" s="6">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="J57" s="1">
-        <v>0.31372549019607998</v>
+        <v>0.21259842519684999</v>
       </c>
       <c r="K57" s="8">
-        <v>0.31372549019607798</v>
+        <v>0.23622047244094399</v>
       </c>
       <c r="L57" s="1">
-        <v>0.68627450980392002</v>
+        <v>0.78740157480314998</v>
       </c>
       <c r="M57" s="8">
-        <v>0.68627450980392102</v>
+        <v>0.76377952755905498</v>
       </c>
       <c r="N57" s="1">
-        <v>0.29227450980392</v>
+        <v>0.55286549232892002</v>
       </c>
       <c r="O57" s="8">
-        <v>0.29827450980392101</v>
+        <v>0.53267987120166604</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="2">
-        <v>425</v>
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>996</v>
       </c>
       <c r="C58" s="6">
-        <v>425</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.87294117647059</v>
+        <v>996</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.76305220883533997</v>
       </c>
       <c r="E58" s="8">
-        <v>0.875294117647058</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.12705882352941</v>
+        <v>0.76405622489959801</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.23694779116466</v>
       </c>
       <c r="G58" s="8">
-        <v>0.124705882352941</v>
-      </c>
-      <c r="H58" s="2">
-        <v>175</v>
+        <v>0.23594377510040099</v>
+      </c>
+      <c r="H58">
+        <v>90</v>
       </c>
       <c r="I58" s="6">
-        <v>175</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0.68</v>
+        <v>90</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.26666666666666999</v>
       </c>
       <c r="K58" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0.32</v>
+        <v>0.266666666666666</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.73333333333332995</v>
       </c>
       <c r="M58" s="8">
-        <v>0.31999999999999901</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0.19294117647059</v>
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.49638554216866998</v>
       </c>
       <c r="O58" s="8">
-        <v>0.19529411764705801</v>
+        <v>0.49738955823293102</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B59">
-        <v>856</v>
+        <v>512</v>
       </c>
       <c r="C59" s="6">
-        <v>856</v>
+        <v>512</v>
       </c>
       <c r="D59" s="1">
-        <v>0.88434579439252003</v>
+        <v>0.76171875</v>
       </c>
       <c r="E59" s="8">
-        <v>0.88668224299065401</v>
+        <v>0.76171875</v>
       </c>
       <c r="F59" s="1">
-        <v>0.11565420560748001</v>
+        <v>0.23828125</v>
       </c>
       <c r="G59" s="8">
-        <v>0.113317757009345</v>
+        <v>0.23828125</v>
       </c>
       <c r="H59">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="I59" s="6">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="J59" s="1">
-        <v>0.59340659340658997</v>
+        <v>0.21848739495798</v>
       </c>
       <c r="K59" s="8">
-        <v>0.59340659340659296</v>
+        <v>0.218487394957983</v>
       </c>
       <c r="L59" s="1">
-        <v>0.40659340659340998</v>
+        <v>0.78151260504202003</v>
       </c>
       <c r="M59" s="8">
-        <v>0.40659340659340598</v>
+        <v>0.78151260504201603</v>
       </c>
       <c r="N59" s="1">
-        <v>0.29093920098593001</v>
+        <v>0.54323135504202003</v>
       </c>
       <c r="O59" s="8">
-        <v>0.29327564958405999</v>
+        <v>0.54323135504201603</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B60">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="C60" s="6">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="D60" s="1">
-        <v>0.87637362637363003</v>
+        <v>0.76148796498906002</v>
       </c>
       <c r="E60" s="8">
-        <v>0.879120879120879</v>
+        <v>0.76367614879649803</v>
       </c>
       <c r="F60" s="1">
-        <v>0.12362637362637</v>
+        <v>0.23851203501094001</v>
       </c>
       <c r="G60" s="8">
-        <v>0.12087912087912001</v>
+        <v>0.236323851203501</v>
       </c>
       <c r="H60">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="I60" s="6">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="J60" s="1">
-        <v>0.39506172839505999</v>
+        <v>0.34931506849315003</v>
       </c>
       <c r="K60" s="8">
-        <v>0.407407407407407</v>
+        <v>0.35616438356164298</v>
       </c>
       <c r="L60" s="1">
-        <v>0.60493827160493996</v>
+        <v>0.65068493150685003</v>
       </c>
       <c r="M60" s="8">
-        <v>0.592592592592592</v>
+        <v>0.64383561643835596</v>
       </c>
       <c r="N60" s="1">
-        <v>0.48131189797856</v>
+        <v>0.41217289649590999</v>
       </c>
       <c r="O60" s="8">
-        <v>0.471713471713471</v>
+        <v>0.40751176523485499</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B61">
-        <v>643</v>
+        <v>410</v>
       </c>
       <c r="C61" s="6">
-        <v>643</v>
+        <v>410</v>
       </c>
       <c r="D61" s="1">
-        <v>0.89113530326594004</v>
+        <v>0.76097560975610001</v>
       </c>
       <c r="E61" s="8">
-        <v>0.89113530326594004</v>
+        <v>0.76341463414634103</v>
       </c>
       <c r="F61" s="1">
-        <v>0.10886469673406</v>
+        <v>0.23902439024389999</v>
       </c>
       <c r="G61" s="8">
-        <v>0.108864696734059</v>
+        <v>0.236585365853658</v>
       </c>
       <c r="H61">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I61" s="6">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="J61" s="1">
-        <v>0.61904761904761996</v>
+        <v>0.42857142857142999</v>
       </c>
       <c r="K61" s="8">
-        <v>0.61904761904761896</v>
+        <v>0.435714285714285</v>
       </c>
       <c r="L61" s="1">
-        <v>0.38095238095237999</v>
+        <v>0.57142857142856995</v>
       </c>
       <c r="M61" s="8">
-        <v>0.38095238095237999</v>
+        <v>0.56428571428571395</v>
       </c>
       <c r="N61" s="1">
-        <v>0.27208768421832003</v>
+        <v>0.33240418118467002</v>
       </c>
       <c r="O61" s="8">
-        <v>0.27208768421832102</v>
+        <v>0.32770034843205498</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B62">
-        <v>503</v>
+        <v>875</v>
       </c>
       <c r="C62" s="6">
-        <v>503</v>
+        <v>875</v>
       </c>
       <c r="D62" s="1">
-        <v>0.88667992047713995</v>
+        <v>0.75657142857143</v>
       </c>
       <c r="E62" s="8">
-        <v>0.88667992047713695</v>
+        <v>0.76</v>
       </c>
       <c r="F62" s="1">
-        <v>0.11332007952286</v>
+        <v>0.24342857142857</v>
       </c>
       <c r="G62" s="8">
-        <v>0.11332007952286199</v>
+        <v>0.24</v>
       </c>
       <c r="H62">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I62" s="6">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="J62" s="1">
-        <v>0.42105263157895001</v>
+        <v>0.32631578947368001</v>
       </c>
       <c r="K62" s="8">
-        <v>0.42105263157894701</v>
+        <v>0.336842105263157</v>
       </c>
       <c r="L62" s="1">
-        <v>0.57894736842104999</v>
+        <v>0.67368421052631999</v>
       </c>
       <c r="M62" s="8">
-        <v>0.57894736842105199</v>
+        <v>0.66315789473684195</v>
       </c>
       <c r="N62" s="1">
-        <v>0.46562728889818999</v>
+        <v>0.43025563909774001</v>
       </c>
       <c r="O62" s="8">
-        <v>0.465627288898189</v>
+        <v>0.42315789473684201</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B63">
-        <v>645</v>
+        <v>338</v>
       </c>
       <c r="C63" s="6">
-        <v>645</v>
+        <v>338</v>
       </c>
       <c r="D63" s="1">
-        <v>0.80775193798449996</v>
+        <v>0.74556213017751005</v>
       </c>
       <c r="E63" s="8">
-        <v>0.81395348837209303</v>
+        <v>0.74852071005917098</v>
       </c>
       <c r="F63" s="1">
-        <v>0.19224806201549999</v>
+        <v>0.25443786982249</v>
       </c>
       <c r="G63" s="8">
-        <v>0.186046511627906</v>
+        <v>0.25147928994082802</v>
       </c>
       <c r="H63">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I63" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J63" s="1">
-        <v>0.52884615384614997</v>
+        <v>0.14563106796117001</v>
       </c>
       <c r="K63" s="8">
-        <v>0.52884615384615297</v>
+        <v>0.14563106796116501</v>
       </c>
       <c r="L63" s="1">
-        <v>0.47115384615384998</v>
+        <v>0.85436893203883002</v>
       </c>
       <c r="M63" s="8">
-        <v>0.47115384615384598</v>
+        <v>0.85436893203883502</v>
       </c>
       <c r="N63" s="1">
-        <v>0.27890578413834</v>
+        <v>0.59993106221634995</v>
       </c>
       <c r="O63" s="8">
-        <v>0.285107334525939</v>
+        <v>0.602889642098006</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64">
-        <v>497</v>
+      <c r="A64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="2">
+        <v>508</v>
       </c>
       <c r="C64" s="6">
-        <v>497</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.51911468812877004</v>
+        <v>508</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.74212598425196996</v>
       </c>
       <c r="E64" s="8">
-        <v>0.52313883299798702</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0.48088531187123001</v>
+        <v>0.74212598425196796</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.25787401574802998</v>
       </c>
       <c r="G64" s="8">
-        <v>0.47686116700201198</v>
-      </c>
-      <c r="H64">
-        <v>187</v>
+        <v>0.25787401574803098</v>
+      </c>
+      <c r="H64" s="2">
+        <v>126</v>
       </c>
       <c r="I64" s="6">
-        <v>187</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0.26737967914438998</v>
+        <v>126</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.41269841269841001</v>
       </c>
       <c r="K64" s="8">
-        <v>0.27272727272727199</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0.73262032085562001</v>
+        <v>0.41269841269841201</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0.58730158730158999</v>
       </c>
       <c r="M64" s="8">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0.25173500898439</v>
+        <v>0.58730158730158699</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.32942757155356001</v>
       </c>
       <c r="O64" s="8">
-        <v>0.25041156027071498</v>
+        <v>0.32942757155355501</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B65">
-        <v>273</v>
+        <v>890</v>
       </c>
       <c r="C65" s="6">
-        <v>273</v>
+        <v>890</v>
       </c>
       <c r="D65" s="1">
-        <v>0.91208791208790996</v>
+        <v>0.73820224719101002</v>
       </c>
       <c r="E65" s="8">
-        <v>0.91575091575091505</v>
+        <v>0.73932584269662904</v>
       </c>
       <c r="F65" s="1">
-        <v>8.7912087912088002E-2</v>
+        <v>0.26179775280898998</v>
       </c>
       <c r="G65" s="8">
-        <v>8.42490842490842E-2</v>
+        <v>0.26067415730337001</v>
       </c>
       <c r="H65">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="I65" s="6">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="J65" s="1">
-        <v>0.52631578947367996</v>
+        <v>0.41089108910890998</v>
       </c>
       <c r="K65" s="8">
-        <v>0.52631578947368396</v>
+        <v>0.41584158415841499</v>
       </c>
       <c r="L65" s="1">
-        <v>0.47368421052631998</v>
+        <v>0.58910891089108997</v>
       </c>
       <c r="M65" s="8">
-        <v>0.47368421052631499</v>
+        <v>0.58415841584158401</v>
       </c>
       <c r="N65" s="1">
-        <v>0.38577212261423</v>
+        <v>0.32731115808209998</v>
       </c>
       <c r="O65" s="8">
-        <v>0.38943512627723098</v>
+        <v>0.323484258538213</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>567</v>
+        <v>775</v>
       </c>
       <c r="C66" s="6">
-        <v>567</v>
+        <v>775</v>
       </c>
       <c r="D66" s="1">
-        <v>0.71781305114638005</v>
+        <v>0.73548387096774004</v>
       </c>
       <c r="E66" s="8">
-        <v>0.72486772486772399</v>
+        <v>0.73806451612903201</v>
       </c>
       <c r="F66" s="1">
-        <v>0.28218694885362</v>
+        <v>0.26451612903226002</v>
       </c>
       <c r="G66" s="8">
-        <v>0.27513227513227501</v>
+        <v>0.26193548387096699</v>
       </c>
       <c r="H66">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="I66" s="6">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J66" s="1">
-        <v>0.37423312883436</v>
+        <v>0.47368421052631998</v>
       </c>
       <c r="K66" s="8">
-        <v>0.374233128834355</v>
+        <v>0.47368421052631499</v>
       </c>
       <c r="L66" s="1">
-        <v>0.62576687116564</v>
+        <v>0.52631578947367996</v>
       </c>
       <c r="M66" s="8">
-        <v>0.625766871165644</v>
+        <v>0.52631578947368396</v>
       </c>
       <c r="N66" s="1">
-        <v>0.34357992231203</v>
+        <v>0.26179966044142999</v>
       </c>
       <c r="O66" s="8">
-        <v>0.35063459603336899</v>
+        <v>0.26438030560271603</v>
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="4">
-        <v>572</v>
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>523</v>
       </c>
       <c r="C67" s="6">
-        <v>572</v>
-      </c>
-      <c r="D67" s="5">
-        <v>0.87587412587413005</v>
+        <v>523</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.73422562141490999</v>
       </c>
       <c r="E67" s="8">
-        <v>0.88111888111888104</v>
-      </c>
-      <c r="F67" s="5">
-        <v>0.12412587412587001</v>
+        <v>0.73613766730401498</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.26577437858509001</v>
       </c>
       <c r="G67" s="8">
-        <v>0.11888111888111801</v>
-      </c>
-      <c r="H67" s="4">
-        <v>220</v>
+        <v>0.26386233269598403</v>
+      </c>
+      <c r="H67">
+        <v>130</v>
       </c>
       <c r="I67" s="6">
-        <v>220</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0.61818181818182005</v>
+        <v>130</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.13076923076923</v>
       </c>
       <c r="K67" s="8">
-        <v>0.61818181818181805</v>
-      </c>
-      <c r="L67" s="5">
-        <v>0.38181818181818</v>
+        <v>0.13076923076923</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.86923076923077003</v>
       </c>
       <c r="M67" s="8">
-        <v>0.381818181818181</v>
-      </c>
-      <c r="N67" s="5">
-        <v>0.25769230769231</v>
+        <v>0.86923076923076903</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.60345639064568002</v>
       </c>
       <c r="O67" s="8">
-        <v>0.26293706293706298</v>
+        <v>0.605368436534784</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>454</v>
+        <v>955</v>
       </c>
       <c r="C68" s="6">
-        <v>454</v>
+        <v>955</v>
       </c>
       <c r="D68" s="1">
-        <v>0.61233480176210997</v>
+        <v>0.73193717277487003</v>
       </c>
       <c r="E68" s="8">
-        <v>0.616740088105726</v>
+        <v>0.73821989528795795</v>
       </c>
       <c r="F68" s="1">
-        <v>0.38766519823788997</v>
+        <v>0.26806282722512997</v>
       </c>
       <c r="G68" s="8">
-        <v>0.383259911894273</v>
+        <v>0.261780104712041</v>
       </c>
       <c r="H68">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I68" s="6">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J68" s="1">
-        <v>0.16363636363636</v>
+        <v>0.38947368421053002</v>
       </c>
       <c r="K68" s="8">
-        <v>0.163636363636363</v>
+        <v>0.38947368421052603</v>
       </c>
       <c r="L68" s="1">
-        <v>0.83636363636363997</v>
+        <v>0.61052631578947003</v>
       </c>
       <c r="M68" s="8">
-        <v>0.83636363636363598</v>
+        <v>0.61052631578947303</v>
       </c>
       <c r="N68" s="1">
-        <v>0.44869843812575</v>
+        <v>0.34246348856434</v>
       </c>
       <c r="O68" s="8">
-        <v>0.45310372446936298</v>
+        <v>0.34874621107743098</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B69">
-        <v>955</v>
+        <v>1030</v>
       </c>
       <c r="C69" s="6">
-        <v>955</v>
+        <v>1030</v>
       </c>
       <c r="D69" s="1">
-        <v>0.73193717277487003</v>
+        <v>0.73106796116505002</v>
       </c>
       <c r="E69" s="8">
-        <v>0.73821989528795795</v>
+        <v>0.73300970873786397</v>
       </c>
       <c r="F69" s="1">
-        <v>0.26806282722512997</v>
+        <v>0.26893203883494998</v>
       </c>
       <c r="G69" s="8">
-        <v>0.261780104712041</v>
+        <v>0.26699029126213503</v>
       </c>
       <c r="H69">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="I69" s="6">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="J69" s="1">
-        <v>0.38947368421053002</v>
+        <v>0.38709677419354999</v>
       </c>
       <c r="K69" s="8">
-        <v>0.38947368421052603</v>
+        <v>0.38709677419354799</v>
       </c>
       <c r="L69" s="1">
-        <v>0.61052631578947003</v>
+        <v>0.61290322580644996</v>
       </c>
       <c r="M69" s="8">
-        <v>0.61052631578947303</v>
+        <v>0.61290322580645096</v>
       </c>
       <c r="N69" s="1">
-        <v>0.34246348856434</v>
+        <v>0.34397118697149998</v>
       </c>
       <c r="O69" s="8">
-        <v>0.34874621107743098</v>
+        <v>0.34591293454431499</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B70">
-        <v>1300</v>
+        <v>744</v>
       </c>
       <c r="C70" s="6">
-        <v>1300</v>
+        <v>744</v>
       </c>
       <c r="D70" s="1">
-        <v>0.84615384615385003</v>
+        <v>0.72715053763440995</v>
       </c>
       <c r="E70" s="8">
-        <v>0.846923076923076</v>
+        <v>0.73387096774193505</v>
       </c>
       <c r="F70" s="1">
-        <v>0.15384615384615</v>
+        <v>0.27284946236558999</v>
       </c>
       <c r="G70" s="8">
-        <v>0.153076923076923</v>
+        <v>0.266129032258064</v>
       </c>
       <c r="H70">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="I70" s="6">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="J70" s="1">
-        <v>0.41242937853106998</v>
+        <v>0.21276595744681001</v>
       </c>
       <c r="K70" s="8">
-        <v>0.41242937853107298</v>
+        <v>0.21276595744680801</v>
       </c>
       <c r="L70" s="1">
-        <v>0.58757062146893002</v>
+        <v>0.78723404255318996</v>
       </c>
       <c r="M70" s="8">
-        <v>0.58757062146892602</v>
+        <v>0.78723404255319096</v>
       </c>
       <c r="N70" s="1">
-        <v>0.43372446762277</v>
+        <v>0.51438458018760003</v>
       </c>
       <c r="O70" s="8">
-        <v>0.43449369839200302</v>
+        <v>0.52110501029512701</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B71">
-        <v>770</v>
+        <v>901</v>
       </c>
       <c r="C71" s="6">
-        <v>770</v>
+        <v>901</v>
       </c>
       <c r="D71" s="1">
-        <v>0.62077922077921999</v>
+        <v>0.72697003329634002</v>
       </c>
       <c r="E71" s="8">
-        <v>0.62077922077921999</v>
+        <v>0.72697003329633703</v>
       </c>
       <c r="F71" s="1">
-        <v>0.37922077922078001</v>
+        <v>0.27302996670365998</v>
       </c>
       <c r="G71" s="8">
-        <v>0.37922077922077901</v>
+        <v>0.27302996670366197</v>
       </c>
       <c r="H71">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I71" s="6">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J71" s="1">
-        <v>0.16842105263158</v>
+        <v>0.24096385542168999</v>
       </c>
       <c r="K71" s="8">
-        <v>0.168421052631578</v>
+        <v>0.240963855421686</v>
       </c>
       <c r="L71" s="1">
-        <v>0.83157894736841997</v>
+        <v>0.75903614457831003</v>
       </c>
       <c r="M71" s="8">
-        <v>0.83157894736842097</v>
+        <v>0.75903614457831303</v>
       </c>
       <c r="N71" s="1">
-        <v>0.45235816814764002</v>
+        <v>0.48600617787465</v>
       </c>
       <c r="O71" s="8">
-        <v>0.45235816814764102</v>
+        <v>0.48600617787465</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B72">
-        <v>744</v>
+        <v>377</v>
       </c>
       <c r="C72" s="6">
-        <v>744</v>
+        <v>377</v>
       </c>
       <c r="D72" s="1">
-        <v>0.84139784946236995</v>
+        <v>0.72413793103447999</v>
       </c>
       <c r="E72" s="8">
-        <v>0.84139784946236496</v>
+        <v>0.73474801061007899</v>
       </c>
       <c r="F72" s="1">
-        <v>0.15860215053762999</v>
+        <v>0.27586206896552001</v>
       </c>
       <c r="G72" s="8">
-        <v>0.15860215053763399</v>
+        <v>0.26525198938992001</v>
       </c>
       <c r="H72">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="I72" s="6">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="J72" s="1">
-        <v>0.57777777777778005</v>
+        <v>0.36075949367089</v>
       </c>
       <c r="K72" s="8">
-        <v>0.57777777777777695</v>
+        <v>0.360759493670886</v>
       </c>
       <c r="L72" s="1">
-        <v>0.42222222222222</v>
+        <v>0.63924050632911</v>
       </c>
       <c r="M72" s="8">
-        <v>0.422222222222222</v>
+        <v>0.639240506329114</v>
       </c>
       <c r="N72" s="1">
-        <v>0.26362007168459001</v>
+        <v>0.36337843736359998</v>
       </c>
       <c r="O72" s="8">
-        <v>0.26362007168458701</v>
+        <v>0.37398851693919299</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="2" customFormat="1">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B73">
-        <v>643</v>
+        <v>485</v>
       </c>
       <c r="C73" s="6">
-        <v>643</v>
+        <v>485</v>
       </c>
       <c r="D73" s="1">
-        <v>0.49766718506997998</v>
+        <v>0.72164948453608002</v>
       </c>
       <c r="E73" s="8">
-        <v>0.49922239502332799</v>
+        <v>0.72371134020618499</v>
       </c>
       <c r="F73" s="1">
-        <v>0.50233281493002002</v>
+        <v>0.27835051546391998</v>
       </c>
       <c r="G73" s="8">
-        <v>0.50077760497667101</v>
+        <v>0.27628865979381401</v>
       </c>
       <c r="H73">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="I73" s="6">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="J73" s="1">
-        <v>5.1470588235293997E-2</v>
+        <v>8.1081081081081002E-2</v>
       </c>
       <c r="K73" s="8">
-        <v>5.1470588235294101E-2</v>
+        <v>8.1081081081081002E-2</v>
       </c>
       <c r="L73" s="1">
-        <v>0.94852941176470995</v>
+        <v>0.91891891891891997</v>
       </c>
       <c r="M73" s="8">
-        <v>0.94852941176470495</v>
+        <v>0.91891891891891797</v>
       </c>
       <c r="N73" s="1">
-        <v>0.44619659683468998</v>
+        <v>0.64056840345499999</v>
       </c>
       <c r="O73" s="8">
-        <v>0.447751806788033</v>
+        <v>0.64263025912510396</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B74">
-        <v>1752</v>
+        <v>1196</v>
       </c>
       <c r="C74" s="6">
-        <v>1752</v>
+        <v>1196</v>
       </c>
       <c r="D74" s="1">
-        <v>0.81107305936073004</v>
+        <v>0.72157190635451995</v>
       </c>
       <c r="E74" s="8">
-        <v>0.81335616438356095</v>
+        <v>0.72324414715718999</v>
       </c>
       <c r="F74" s="1">
-        <v>0.18892694063927001</v>
+        <v>0.27842809364547999</v>
       </c>
       <c r="G74" s="8">
-        <v>0.18664383561643799</v>
+        <v>0.27675585284280901</v>
       </c>
       <c r="H74">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="I74" s="6">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="J74" s="1">
-        <v>0.41129032258065001</v>
+        <v>0.21546961325967001</v>
       </c>
       <c r="K74" s="8">
-        <v>0.41129032258064502</v>
+        <v>0.22099447513812101</v>
       </c>
       <c r="L74" s="1">
-        <v>0.58870967741934999</v>
+        <v>0.78453038674033004</v>
       </c>
       <c r="M74" s="8">
-        <v>0.58870967741935398</v>
+        <v>0.77900552486187802</v>
       </c>
       <c r="N74" s="1">
-        <v>0.39978273678009002</v>
+        <v>0.50610229309485</v>
       </c>
       <c r="O74" s="8">
-        <v>0.40206584180291599</v>
+        <v>0.502249672019069</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>457</v>
+        <v>567</v>
       </c>
       <c r="C75" s="6">
-        <v>457</v>
+        <v>567</v>
       </c>
       <c r="D75" s="1">
-        <v>0.76148796498906002</v>
+        <v>0.71781305114638005</v>
       </c>
       <c r="E75" s="8">
-        <v>0.76367614879649803</v>
+        <v>0.72486772486772399</v>
       </c>
       <c r="F75" s="1">
-        <v>0.23851203501094001</v>
+        <v>0.28218694885362</v>
       </c>
       <c r="G75" s="8">
-        <v>0.236323851203501</v>
+        <v>0.27513227513227501</v>
       </c>
       <c r="H75">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="I75" s="6">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J75" s="1">
-        <v>0.34931506849315003</v>
+        <v>0.37423312883436</v>
       </c>
       <c r="K75" s="8">
-        <v>0.35616438356164298</v>
+        <v>0.374233128834355</v>
       </c>
       <c r="L75" s="1">
-        <v>0.65068493150685003</v>
+        <v>0.62576687116564</v>
       </c>
       <c r="M75" s="8">
-        <v>0.64383561643835596</v>
+        <v>0.625766871165644</v>
       </c>
       <c r="N75" s="1">
-        <v>0.41217289649590999</v>
+        <v>0.34357992231203</v>
       </c>
       <c r="O75" s="8">
-        <v>0.40751176523485499</v>
+        <v>0.35063459603336899</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>1012</v>
+        <v>550</v>
       </c>
       <c r="C76" s="6">
-        <v>1012</v>
+        <v>550</v>
       </c>
       <c r="D76" s="1">
-        <v>0.81620553359684</v>
+        <v>0.71090909090909005</v>
       </c>
       <c r="E76" s="8">
-        <v>0.81916996047430801</v>
+        <v>0.71454545454545404</v>
       </c>
       <c r="F76" s="1">
-        <v>0.18379446640316</v>
+        <v>0.28909090909091001</v>
       </c>
       <c r="G76" s="8">
-        <v>0.18083003952569099</v>
+        <v>0.28545454545454502</v>
       </c>
       <c r="H76">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="I76" s="6">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="J76" s="1">
-        <v>0.59854014598539995</v>
+        <v>0.29120879120879001</v>
       </c>
       <c r="K76" s="8">
-        <v>0.59854014598540095</v>
+        <v>0.29670329670329598</v>
       </c>
       <c r="L76" s="1">
-        <v>0.40145985401459999</v>
+        <v>0.70879120879121005</v>
       </c>
       <c r="M76" s="8">
-        <v>0.40145985401459799</v>
+        <v>0.70329670329670302</v>
       </c>
       <c r="N76" s="1">
-        <v>0.21766538761144</v>
+        <v>0.41970029970029998</v>
       </c>
       <c r="O76" s="8">
-        <v>0.22062981448890601</v>
+        <v>0.417842157842157</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B77">
-        <v>792</v>
+        <v>688</v>
       </c>
       <c r="C77" s="6">
-        <v>792</v>
+        <v>688</v>
       </c>
       <c r="D77" s="1">
-        <v>0.84090909090909005</v>
+        <v>0.69622093023256004</v>
       </c>
       <c r="E77" s="8">
-        <v>0.84469696969696895</v>
+        <v>0.69767441860465096</v>
       </c>
       <c r="F77" s="1">
-        <v>0.15909090909091</v>
+        <v>0.30377906976744001</v>
       </c>
       <c r="G77" s="8">
-        <v>0.15530303030303</v>
+        <v>0.30232558139534799</v>
       </c>
       <c r="H77">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="I77" s="6">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="J77" s="1">
-        <v>0.68627450980392002</v>
+        <v>0.12162162162162</v>
       </c>
       <c r="K77" s="8">
-        <v>0.68627450980392102</v>
+        <v>0.121621621621621</v>
       </c>
       <c r="L77" s="1">
-        <v>0.31372549019607998</v>
+        <v>0.87837837837837995</v>
       </c>
       <c r="M77" s="8">
-        <v>0.31372549019607798</v>
+        <v>0.87837837837837796</v>
       </c>
       <c r="N77" s="1">
-        <v>0.15463458110517</v>
+        <v>0.57459930861094</v>
       </c>
       <c r="O77" s="8">
-        <v>0.15842245989304801</v>
+        <v>0.57605279698302903</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B78">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="C78" s="6">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="D78" s="1">
-        <v>0.65222772277228003</v>
+        <v>0.69193154034229998</v>
       </c>
       <c r="E78" s="8">
-        <v>0.65346534653465305</v>
+        <v>0.70048899755501204</v>
       </c>
       <c r="F78" s="1">
-        <v>0.34777227722771997</v>
+        <v>0.30806845965770002</v>
       </c>
       <c r="G78" s="8">
-        <v>0.34653465346534601</v>
+        <v>0.29951100244498702</v>
       </c>
       <c r="H78">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I78" s="6">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="J78" s="1">
-        <v>0.25242718446602003</v>
+        <v>0.20731707317073</v>
       </c>
       <c r="K78" s="8">
-        <v>0.26213592233009703</v>
+        <v>0.207317073170731</v>
       </c>
       <c r="L78" s="1">
-        <v>0.74757281553398003</v>
+        <v>0.79268292682927</v>
       </c>
       <c r="M78" s="8">
-        <v>0.73786407766990203</v>
+        <v>0.792682926829268</v>
       </c>
       <c r="N78" s="1">
-        <v>0.39980053830626</v>
+        <v>0.48461446717156997</v>
       </c>
       <c r="O78" s="8">
-        <v>0.39132942420455602</v>
+        <v>0.49317192438427998</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B79">
-        <v>937</v>
+        <v>1067</v>
       </c>
       <c r="C79" s="6">
-        <v>937</v>
+        <v>1067</v>
       </c>
       <c r="D79" s="1">
-        <v>0.84951974386339002</v>
+        <v>0.68134957825678999</v>
       </c>
       <c r="E79" s="8">
-        <v>0.85058697972251796</v>
+        <v>0.683223992502343</v>
       </c>
       <c r="F79" s="1">
-        <v>0.15048025613661001</v>
+        <v>0.31865042174321001</v>
       </c>
       <c r="G79" s="8">
-        <v>0.14941302027748099</v>
+        <v>0.316776007497657</v>
       </c>
       <c r="H79">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="I79" s="6">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="J79" s="1">
-        <v>0.53097345132743001</v>
+        <v>0.25698324022345997</v>
       </c>
       <c r="K79" s="8">
-        <v>0.53097345132743301</v>
+        <v>0.25698324022346303</v>
       </c>
       <c r="L79" s="1">
-        <v>0.46902654867256999</v>
+        <v>0.74301675977654003</v>
       </c>
       <c r="M79" s="8">
-        <v>0.46902654867256599</v>
+        <v>0.74301675977653603</v>
       </c>
       <c r="N79" s="1">
-        <v>0.31854629253596001</v>
+        <v>0.42436633803333002</v>
       </c>
       <c r="O79" s="8">
-        <v>0.319613528395084</v>
+        <v>0.42624075227887898</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B80">
-        <v>376</v>
+        <v>654</v>
       </c>
       <c r="C80" s="6">
-        <v>376</v>
+        <v>654</v>
       </c>
       <c r="D80" s="1">
-        <v>0.59042553191489</v>
+        <v>0.68042813455657003</v>
       </c>
       <c r="E80" s="8">
-        <v>0.59840425531914898</v>
+        <v>0.68195718654434201</v>
       </c>
       <c r="F80" s="1">
-        <v>0.40957446808511</v>
+        <v>0.31957186544343003</v>
       </c>
       <c r="G80" s="8">
-        <v>0.40159574468085102</v>
+        <v>0.31804281345565699</v>
       </c>
       <c r="H80">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I80" s="6">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="J80" s="1">
-        <v>0.11392405063291</v>
+        <v>0.25</v>
       </c>
       <c r="K80" s="8">
-        <v>0.113924050632911</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="L80" s="1">
-        <v>0.88607594936709</v>
+        <v>0.75</v>
       </c>
       <c r="M80" s="8">
-        <v>0.886075949367088</v>
+        <v>0.73076923076922995</v>
       </c>
       <c r="N80" s="1">
-        <v>0.47650148128198</v>
+        <v>0.43042813455656997</v>
       </c>
       <c r="O80" s="8">
-        <v>0.48448020468623698</v>
+        <v>0.41272641731357301</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>512</v>
+        <v>655</v>
       </c>
       <c r="C81" s="6">
-        <v>512</v>
+        <v>655</v>
       </c>
       <c r="D81" s="1">
-        <v>0.76171875</v>
+        <v>0.67328244274809002</v>
       </c>
       <c r="E81" s="8">
-        <v>0.76171875</v>
+        <v>0.67633587786259497</v>
       </c>
       <c r="F81" s="1">
-        <v>0.23828125</v>
+        <v>0.32671755725190998</v>
       </c>
       <c r="G81" s="8">
-        <v>0.23828125</v>
+        <v>0.32366412213740398</v>
       </c>
       <c r="H81">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="I81" s="6">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="J81" s="1">
-        <v>0.21848739495798</v>
+        <v>9.8360655737704999E-2</v>
       </c>
       <c r="K81" s="8">
-        <v>0.218487394957983</v>
+        <v>9.8360655737704902E-2</v>
       </c>
       <c r="L81" s="1">
-        <v>0.78151260504202003</v>
+        <v>0.90163934426229997</v>
       </c>
       <c r="M81" s="8">
-        <v>0.78151260504201603</v>
+        <v>0.90163934426229497</v>
       </c>
       <c r="N81" s="1">
-        <v>0.54323135504202003</v>
+        <v>0.57492178701038998</v>
       </c>
       <c r="O81" s="8">
-        <v>0.54323135504201603</v>
+        <v>0.57797522212489005</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B82">
-        <v>430</v>
+        <v>1367</v>
       </c>
       <c r="C82" s="6">
-        <v>430</v>
+        <v>1367</v>
       </c>
       <c r="D82" s="1">
-        <v>0.84418604651162998</v>
+        <v>0.65691294806144995</v>
       </c>
       <c r="E82" s="8">
-        <v>0.84651162790697598</v>
+        <v>0.65910753474762196</v>
       </c>
       <c r="F82" s="1">
-        <v>0.15581395348836999</v>
+        <v>0.34308705193854999</v>
       </c>
       <c r="G82" s="8">
-        <v>0.15348837209302299</v>
+        <v>0.34089246525237699</v>
       </c>
       <c r="H82">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="I82" s="6">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="J82" s="1">
-        <v>0.31034482758621001</v>
+        <v>0.44444444444443998</v>
       </c>
       <c r="K82" s="8">
-        <v>0.31034482758620602</v>
+        <v>0.45925925925925898</v>
       </c>
       <c r="L82" s="1">
-        <v>0.68965517241379004</v>
+        <v>0.55555555555556002</v>
       </c>
       <c r="M82" s="8">
-        <v>0.68965517241379304</v>
+        <v>0.54074074074073997</v>
       </c>
       <c r="N82" s="1">
-        <v>0.53384121892542002</v>
+        <v>0.21246850361700001</v>
       </c>
       <c r="O82" s="8">
-        <v>0.53616680032076902</v>
+        <v>0.19984827548836301</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B83">
-        <v>532</v>
+        <v>1081</v>
       </c>
       <c r="C83" s="6">
-        <v>532</v>
+        <v>1081</v>
       </c>
       <c r="D83" s="1">
-        <v>0.34210526315789003</v>
+        <v>0.65587419056428997</v>
       </c>
       <c r="E83" s="8">
-        <v>0.34586466165413499</v>
+        <v>0.65587419056429197</v>
       </c>
       <c r="F83" s="1">
-        <v>0.65789473684210997</v>
+        <v>0.34412580943570997</v>
       </c>
       <c r="G83" s="8">
-        <v>0.65413533834586401</v>
+        <v>0.34412580943570698</v>
       </c>
       <c r="H83">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="I83" s="6">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J83" s="1">
-        <v>0.10256410256409999</v>
+        <v>0.19166666666667001</v>
       </c>
       <c r="K83" s="8">
-        <v>0.108974358974358</v>
+        <v>0.19166666666666601</v>
       </c>
       <c r="L83" s="1">
-        <v>0.89743589743590002</v>
+        <v>0.80833333333333002</v>
       </c>
       <c r="M83" s="8">
-        <v>0.89102564102564097</v>
+        <v>0.80833333333333302</v>
       </c>
       <c r="N83" s="1">
-        <v>0.23954116059378999</v>
+        <v>0.46420752389762998</v>
       </c>
       <c r="O83" s="8">
-        <v>0.23689030267977601</v>
+        <v>0.46420752389762499</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B84">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="C84" s="6">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="D84" s="1">
-        <v>0.89945652173913004</v>
+        <v>0.65580448065173003</v>
       </c>
       <c r="E84" s="8">
-        <v>0.89945652173913004</v>
+        <v>0.65987780040733202</v>
       </c>
       <c r="F84" s="1">
-        <v>0.10054347826087</v>
+        <v>0.34419551934826997</v>
       </c>
       <c r="G84" s="8">
-        <v>0.100543478260869</v>
+        <v>0.34012219959266798</v>
       </c>
       <c r="H84">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="I84" s="6">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="J84" s="1">
-        <v>0.79245283018867996</v>
+        <v>0.29032258064515998</v>
       </c>
       <c r="K84" s="8">
-        <v>0.80503144654087999</v>
+        <v>0.31182795698924698</v>
       </c>
       <c r="L84" s="1">
-        <v>0.20754716981131999</v>
+        <v>0.70967741935483997</v>
       </c>
       <c r="M84" s="8">
-        <v>0.19496855345911901</v>
+        <v>0.68817204301075197</v>
       </c>
       <c r="N84" s="1">
-        <v>0.10700369155045</v>
+        <v>0.36548190000656999</v>
       </c>
       <c r="O84" s="8">
-        <v>9.44250751982499E-2</v>
+        <v>0.34804984341808398</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B85">
-        <v>944</v>
+        <v>296</v>
       </c>
       <c r="C85" s="6">
-        <v>944</v>
+        <v>296</v>
       </c>
       <c r="D85" s="1">
-        <v>0.88453389830508</v>
+        <v>0.65540540540541004</v>
       </c>
       <c r="E85" s="8">
-        <v>0.88665254237288105</v>
+        <v>0.66216216216216195</v>
       </c>
       <c r="F85" s="1">
-        <v>0.11546610169492</v>
+        <v>0.34459459459459002</v>
       </c>
       <c r="G85" s="8">
-        <v>0.113347457627118</v>
+        <v>0.337837837837837</v>
       </c>
       <c r="H85">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="I85" s="6">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="J85" s="1">
-        <v>0.64393939393939004</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="K85" s="8">
-        <v>0.64393939393939303</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="L85" s="1">
-        <v>0.35606060606061002</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="M85" s="8">
-        <v>0.35606060606060602</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="N85" s="1">
-        <v>0.24059450436568999</v>
+        <v>0.44290540540541001</v>
       </c>
       <c r="O85" s="8">
-        <v>0.24271314843348701</v>
+        <v>0.44966216216216198</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>457</v>
+        <v>808</v>
       </c>
       <c r="C86" s="6">
-        <v>457</v>
+        <v>808</v>
       </c>
       <c r="D86" s="1">
-        <v>0.63238512035010996</v>
+        <v>0.65222772277228003</v>
       </c>
       <c r="E86" s="8">
-        <v>0.63457330415754898</v>
+        <v>0.65346534653465305</v>
       </c>
       <c r="F86" s="1">
-        <v>0.36761487964988998</v>
+        <v>0.34777227722771997</v>
       </c>
       <c r="G86" s="8">
-        <v>0.36542669584245002</v>
+        <v>0.34653465346534601</v>
       </c>
       <c r="H86">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I86" s="6">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="J86" s="1">
-        <v>0.20930232558139999</v>
+        <v>0.25242718446602003</v>
       </c>
       <c r="K86" s="8">
-        <v>0.209302325581395</v>
+        <v>0.26213592233009703</v>
       </c>
       <c r="L86" s="1">
-        <v>0.79069767441859995</v>
+        <v>0.74757281553398003</v>
       </c>
       <c r="M86" s="8">
-        <v>0.79069767441860395</v>
+        <v>0.73786407766990203</v>
       </c>
       <c r="N86" s="1">
-        <v>0.42308279476871002</v>
+        <v>0.39980053830626</v>
       </c>
       <c r="O86" s="8">
-        <v>0.42527097857615298</v>
+        <v>0.39132942420455602</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="4" customFormat="1">
-      <c r="A87" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="2">
-        <v>214</v>
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87">
+        <v>519</v>
       </c>
       <c r="C87" s="6">
-        <v>214</v>
-      </c>
-      <c r="D87" s="3">
-        <v>0.87383177570092996</v>
+        <v>519</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.65125240847784005</v>
       </c>
       <c r="E87" s="8">
-        <v>0.87383177570093395</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0.12616822429906999</v>
+        <v>0.65510597302504803</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.34874759152216001</v>
       </c>
       <c r="G87" s="8">
-        <v>0.12616822429906499</v>
-      </c>
-      <c r="H87" s="2">
-        <v>85</v>
+        <v>0.34489402697495097</v>
+      </c>
+      <c r="H87">
+        <v>175</v>
       </c>
       <c r="I87" s="6">
-        <v>85</v>
-      </c>
-      <c r="J87" s="3">
-        <v>0.45882352941176002</v>
+        <v>175</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.15428571428571</v>
       </c>
       <c r="K87" s="8">
-        <v>0.45882352941176402</v>
-      </c>
-      <c r="L87" s="3">
-        <v>0.54117647058824003</v>
+        <v>0.16</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.84571428571428997</v>
       </c>
       <c r="M87" s="8">
-        <v>0.54117647058823504</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0.41500824628916999</v>
+        <v>0.84</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.49696669419213002</v>
       </c>
       <c r="O87" s="8">
-        <v>0.41500824628916999</v>
+        <v>0.495105973025048</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B88">
-        <v>2870</v>
+        <v>495</v>
       </c>
       <c r="C88" s="6">
-        <v>2870</v>
+        <v>495</v>
       </c>
       <c r="D88" s="1">
-        <v>0.76794425087107998</v>
+        <v>0.64646464646464996</v>
       </c>
       <c r="E88" s="8">
-        <v>0.76933797909407597</v>
+        <v>0.648484848484848</v>
       </c>
       <c r="F88" s="1">
-        <v>0.23205574912891999</v>
+        <v>0.35353535353534998</v>
       </c>
       <c r="G88" s="8">
-        <v>0.230662020905923</v>
+        <v>0.351515151515151</v>
       </c>
       <c r="H88">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="I88" s="6">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="J88" s="1">
-        <v>0.36269430051813001</v>
+        <v>0.29496402877698003</v>
       </c>
       <c r="K88" s="8">
-        <v>0.36787564766839298</v>
+        <v>0.29496402877697803</v>
       </c>
       <c r="L88" s="1">
-        <v>0.63730569948186999</v>
+        <v>0.70503597122301997</v>
       </c>
       <c r="M88" s="8">
-        <v>0.63212435233160602</v>
+        <v>0.70503597122302097</v>
       </c>
       <c r="N88" s="1">
-        <v>0.40524995035294997</v>
+        <v>0.35150061768766999</v>
       </c>
       <c r="O88" s="8">
-        <v>0.401462331425682</v>
+        <v>0.35352081970787003</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>1081</v>
+        <v>457</v>
       </c>
       <c r="C89" s="6">
-        <v>1081</v>
+        <v>457</v>
       </c>
       <c r="D89" s="1">
-        <v>0.65587419056428997</v>
+        <v>0.63238512035010996</v>
       </c>
       <c r="E89" s="8">
-        <v>0.65587419056429197</v>
+        <v>0.63457330415754898</v>
       </c>
       <c r="F89" s="1">
-        <v>0.34412580943570997</v>
+        <v>0.36761487964988998</v>
       </c>
       <c r="G89" s="8">
-        <v>0.34412580943570698</v>
+        <v>0.36542669584245002</v>
       </c>
       <c r="H89">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="I89" s="6">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="J89" s="1">
-        <v>0.19166666666667001</v>
+        <v>0.20930232558139999</v>
       </c>
       <c r="K89" s="8">
-        <v>0.19166666666666601</v>
+        <v>0.209302325581395</v>
       </c>
       <c r="L89" s="1">
-        <v>0.80833333333333002</v>
+        <v>0.79069767441859995</v>
       </c>
       <c r="M89" s="8">
-        <v>0.80833333333333302</v>
+        <v>0.79069767441860395</v>
       </c>
       <c r="N89" s="1">
-        <v>0.46420752389762998</v>
+        <v>0.42308279476871002</v>
       </c>
       <c r="O89" s="8">
-        <v>0.46420752389762499</v>
+        <v>0.42527097857615298</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90">
+        <v>375</v>
+      </c>
+      <c r="C90" s="6">
+        <v>375</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E90" s="8">
+        <v>0.63466666666666605</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G90" s="8">
+        <v>0.36533333333333301</v>
+      </c>
+      <c r="H90">
+        <v>99</v>
+      </c>
+      <c r="I90" s="6">
+        <v>99</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.27272727272726999</v>
+      </c>
+      <c r="K90" s="8">
+        <v>0.28282828282828198</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.72727272727272996</v>
+      </c>
+      <c r="M90" s="8">
+        <v>0.71717171717171702</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0.35927272727273002</v>
+      </c>
+      <c r="O90" s="8">
+        <v>0.35183838383838301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
         <v>96</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>708</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C91" s="6">
         <v>708</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D91" s="1">
         <v>0.62288135593219995</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E91" s="8">
         <v>0.62711864406779605</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F91" s="1">
         <v>0.37711864406779999</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <v>0.37288135593220301</v>
       </c>
-      <c r="H90">
+      <c r="H91">
         <v>173</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I91" s="6">
         <v>173</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J91" s="1">
         <v>0.17919075144509</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K91" s="8">
         <v>0.17919075144508601</v>
       </c>
-      <c r="L90" s="1">
+      <c r="L91" s="1">
         <v>0.82080924855491</v>
       </c>
-      <c r="M90" s="8">
+      <c r="M91" s="8">
         <v>0.820809248554913</v>
       </c>
-      <c r="N90" s="1">
+      <c r="N91" s="1">
         <v>0.44369060448712</v>
       </c>
-      <c r="O90" s="8">
+      <c r="O91" s="8">
         <v>0.44792789262270899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="2">
-        <v>826</v>
-      </c>
-      <c r="C91" s="6">
-        <v>826</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0.9455205811138</v>
-      </c>
-      <c r="E91" s="8">
-        <v>0.945520581113801</v>
-      </c>
-      <c r="F91" s="3">
-        <v>5.4479418886198998E-2</v>
-      </c>
-      <c r="G91" s="8">
-        <v>5.4479418886198498E-2</v>
-      </c>
-      <c r="H91" s="2">
-        <v>227</v>
-      </c>
-      <c r="I91" s="6">
-        <v>227</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0.78854625550660995</v>
-      </c>
-      <c r="K91" s="8">
-        <v>0.78854625550660795</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0.21145374449338999</v>
-      </c>
-      <c r="M91" s="8">
-        <v>0.21145374449339199</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0.15697432560718999</v>
-      </c>
-      <c r="O91" s="8">
-        <v>0.15697432560719299</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="4" customFormat="1">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B92">
-        <v>851</v>
+        <v>517</v>
       </c>
       <c r="C92" s="6">
-        <v>851</v>
+        <v>517</v>
       </c>
       <c r="D92" s="1">
-        <v>0.59224441833136998</v>
+        <v>0.62282398452610999</v>
       </c>
       <c r="E92" s="8">
-        <v>0.59811985898942399</v>
+        <v>0.62862669245647895</v>
       </c>
       <c r="F92" s="1">
-        <v>0.40775558166863002</v>
+        <v>0.37717601547389001</v>
       </c>
       <c r="G92" s="8">
-        <v>0.40188014101057501</v>
+        <v>0.37137330754351999</v>
       </c>
       <c r="H92">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="I92" s="6">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="J92" s="1">
-        <v>7.9439252336448996E-2</v>
+        <v>0.34523809523810001</v>
       </c>
       <c r="K92" s="8">
-        <v>7.9439252336448593E-2</v>
+        <v>0.351190476190476</v>
       </c>
       <c r="L92" s="1">
-        <v>0.92056074766355001</v>
+        <v>0.65476190476189999</v>
       </c>
       <c r="M92" s="8">
-        <v>0.920560747663551</v>
+        <v>0.64880952380952295</v>
       </c>
       <c r="N92" s="1">
-        <v>0.51280516599492998</v>
+        <v>0.27758588928802003</v>
       </c>
       <c r="O92" s="8">
-        <v>0.518680606652975</v>
+        <v>0.27743621626600301</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B93">
-        <v>1155</v>
+        <v>770</v>
       </c>
       <c r="C93" s="6">
-        <v>1155</v>
+        <v>770</v>
       </c>
       <c r="D93" s="1">
-        <v>0.78787878787878995</v>
+        <v>0.62077922077921999</v>
       </c>
       <c r="E93" s="8">
-        <v>0.79220779220779203</v>
+        <v>0.62077922077921999</v>
       </c>
       <c r="F93" s="1">
-        <v>0.21212121212120999</v>
+        <v>0.37922077922078001</v>
       </c>
       <c r="G93" s="8">
-        <v>0.207792207792207</v>
+        <v>0.37922077922077901</v>
       </c>
       <c r="H93">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="I93" s="6">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="J93" s="1">
-        <v>0.46927374301676</v>
+        <v>0.16842105263158</v>
       </c>
       <c r="K93" s="8">
-        <v>0.469273743016759</v>
+        <v>0.168421052631578</v>
       </c>
       <c r="L93" s="1">
-        <v>0.53072625698324005</v>
+        <v>0.83157894736841997</v>
       </c>
       <c r="M93" s="8">
-        <v>0.53072625698324005</v>
+        <v>0.83157894736842097</v>
       </c>
       <c r="N93" s="1">
-        <v>0.31860504486203001</v>
+        <v>0.45235816814764002</v>
       </c>
       <c r="O93" s="8">
-        <v>0.32293404919103202</v>
+        <v>0.45235816814764102</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>936</v>
+        <v>850</v>
       </c>
       <c r="C94" s="6">
-        <v>936</v>
+        <v>850</v>
       </c>
       <c r="D94" s="1">
-        <v>0.86324786324785996</v>
+        <v>0.62</v>
       </c>
       <c r="E94" s="8">
-        <v>0.86538461538461497</v>
+        <v>0.623529411764705</v>
       </c>
       <c r="F94" s="1">
-        <v>0.13675213675214001</v>
+        <v>0.38</v>
       </c>
       <c r="G94" s="8">
-        <v>0.134615384615384</v>
+        <v>0.376470588235294</v>
       </c>
       <c r="H94">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I94" s="6">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="J94" s="1">
-        <v>0.50458715596329995</v>
+        <v>9.4594594594595002E-2</v>
       </c>
       <c r="K94" s="8">
-        <v>0.50458715596330195</v>
+        <v>9.45945945945946E-2</v>
       </c>
       <c r="L94" s="1">
-        <v>0.4954128440367</v>
+        <v>0.90540540540541004</v>
       </c>
       <c r="M94" s="8">
-        <v>0.495412844036697</v>
+        <v>0.90540540540540504</v>
       </c>
       <c r="N94" s="1">
-        <v>0.35866070728456001</v>
+        <v>0.52540540540541003</v>
       </c>
       <c r="O94" s="8">
-        <v>0.36079745942131197</v>
+        <v>0.52893481717011104</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="2" customFormat="1">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B95">
-        <v>688</v>
+        <v>454</v>
       </c>
       <c r="C95" s="6">
-        <v>688</v>
+        <v>454</v>
       </c>
       <c r="D95" s="1">
-        <v>0.69622093023256004</v>
+        <v>0.61233480176210997</v>
       </c>
       <c r="E95" s="8">
-        <v>0.69767441860465096</v>
+        <v>0.616740088105726</v>
       </c>
       <c r="F95" s="1">
-        <v>0.30377906976744001</v>
+        <v>0.38766519823788997</v>
       </c>
       <c r="G95" s="8">
-        <v>0.30232558139534799</v>
+        <v>0.383259911894273</v>
       </c>
       <c r="H95">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="I95" s="6">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="J95" s="1">
-        <v>0.12162162162162</v>
+        <v>0.16363636363636</v>
       </c>
       <c r="K95" s="8">
-        <v>0.121621621621621</v>
+        <v>0.163636363636363</v>
       </c>
       <c r="L95" s="1">
-        <v>0.87837837837837995</v>
+        <v>0.83636363636363997</v>
       </c>
       <c r="M95" s="8">
-        <v>0.87837837837837796</v>
+        <v>0.83636363636363598</v>
       </c>
       <c r="N95" s="1">
-        <v>0.57459930861094</v>
+        <v>0.44869843812575</v>
       </c>
       <c r="O95" s="8">
-        <v>0.57605279698302903</v>
+        <v>0.45310372446936298</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B96">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="C96" s="6">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="D96" s="1">
-        <v>0.62</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E96" s="8">
-        <v>0.623529411764705</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="F96" s="1">
-        <v>0.38</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G96" s="8">
-        <v>0.376470588235294</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="H96">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I96" s="6">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J96" s="1">
-        <v>9.4594594594595002E-2</v>
+        <v>0.31372549019607998</v>
       </c>
       <c r="K96" s="8">
-        <v>9.45945945945946E-2</v>
+        <v>0.31372549019607798</v>
       </c>
       <c r="L96" s="1">
-        <v>0.90540540540541004</v>
+        <v>0.68627450980392002</v>
       </c>
       <c r="M96" s="8">
-        <v>0.90540540540540504</v>
+        <v>0.68627450980392102</v>
       </c>
       <c r="N96" s="1">
-        <v>0.52540540540541003</v>
+        <v>0.29227450980392</v>
       </c>
       <c r="O96" s="8">
-        <v>0.52893481717011104</v>
+        <v>0.29827450980392101</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B97">
-        <v>1031</v>
+        <v>879</v>
       </c>
       <c r="C97" s="6">
-        <v>1031</v>
+        <v>879</v>
       </c>
       <c r="D97" s="1">
-        <v>0.78952473326867001</v>
+        <v>0.59271899886234003</v>
       </c>
       <c r="E97" s="8">
-        <v>0.79243452958292904</v>
+        <v>0.59613196814561997</v>
       </c>
       <c r="F97" s="1">
-        <v>0.21047526673132999</v>
+        <v>0.40728100113766003</v>
       </c>
       <c r="G97" s="8">
-        <v>0.20756547041706999</v>
+        <v>0.40386803185438003</v>
       </c>
       <c r="H97">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="I97" s="6">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="J97" s="1">
-        <v>0.43548387096773999</v>
+        <v>0.13793103448276001</v>
       </c>
       <c r="K97" s="8">
-        <v>0.44623655913978399</v>
+        <v>0.13793103448275801</v>
       </c>
       <c r="L97" s="1">
-        <v>0.56451612903226001</v>
+        <v>0.86206896551723999</v>
       </c>
       <c r="M97" s="8">
-        <v>0.55376344086021501</v>
+        <v>0.86206896551724099</v>
       </c>
       <c r="N97" s="1">
-        <v>0.35404086230093001</v>
+        <v>0.45478796437958002</v>
       </c>
       <c r="O97" s="8">
-        <v>0.34619797044314399</v>
+        <v>0.45820093366286102</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>1367</v>
+        <v>851</v>
       </c>
       <c r="C98" s="6">
-        <v>1367</v>
+        <v>851</v>
       </c>
       <c r="D98" s="1">
-        <v>0.65691294806144995</v>
+        <v>0.59224441833136998</v>
       </c>
       <c r="E98" s="8">
-        <v>0.65910753474762196</v>
+        <v>0.59811985898942399</v>
       </c>
       <c r="F98" s="1">
-        <v>0.34308705193854999</v>
+        <v>0.40775558166863002</v>
       </c>
       <c r="G98" s="8">
-        <v>0.34089246525237699</v>
+        <v>0.40188014101057501</v>
       </c>
       <c r="H98">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="I98" s="6">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="J98" s="1">
-        <v>0.44444444444443998</v>
+        <v>7.9439252336448996E-2</v>
       </c>
       <c r="K98" s="8">
-        <v>0.45925925925925898</v>
+        <v>7.9439252336448593E-2</v>
       </c>
       <c r="L98" s="1">
-        <v>0.55555555555556002</v>
+        <v>0.92056074766355001</v>
       </c>
       <c r="M98" s="8">
-        <v>0.54074074074073997</v>
+        <v>0.920560747663551</v>
       </c>
       <c r="N98" s="1">
-        <v>0.21246850361700001</v>
+        <v>0.51280516599492998</v>
       </c>
       <c r="O98" s="8">
-        <v>0.19984827548836301</v>
+        <v>0.518680606652975</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B99">
-        <v>615</v>
+        <v>376</v>
       </c>
       <c r="C99" s="6">
-        <v>615</v>
+        <v>376</v>
       </c>
       <c r="D99" s="1">
-        <v>0.48130081300812999</v>
+        <v>0.59042553191489</v>
       </c>
       <c r="E99" s="8">
-        <v>0.48780487804877998</v>
+        <v>0.59840425531914898</v>
       </c>
       <c r="F99" s="1">
-        <v>0.51869918699187001</v>
+        <v>0.40957446808511</v>
       </c>
       <c r="G99" s="8">
-        <v>0.51219512195121897</v>
+        <v>0.40159574468085102</v>
       </c>
       <c r="H99">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="I99" s="6">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="J99" s="1">
-        <v>0.1453488372093</v>
+        <v>0.11392405063291</v>
       </c>
       <c r="K99" s="8">
-        <v>0.15116279069767399</v>
+        <v>0.113924050632911</v>
       </c>
       <c r="L99" s="1">
-        <v>0.85465116279069997</v>
+        <v>0.88607594936709</v>
       </c>
       <c r="M99" s="8">
-        <v>0.84883720930232498</v>
+        <v>0.886075949367088</v>
       </c>
       <c r="N99" s="1">
-        <v>0.33595197579883002</v>
+        <v>0.47650148128198</v>
       </c>
       <c r="O99" s="8">
-        <v>0.33664208735110601</v>
+        <v>0.48448020468623698</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="2" customFormat="1">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B100">
-        <v>375</v>
+        <v>679</v>
       </c>
       <c r="C100" s="6">
-        <v>375</v>
+        <v>679</v>
       </c>
       <c r="D100" s="1">
-        <v>0.63200000000000001</v>
+        <v>0.58910162002945998</v>
       </c>
       <c r="E100" s="8">
-        <v>0.63466666666666605</v>
+        <v>0.58910162002945499</v>
       </c>
       <c r="F100" s="1">
-        <v>0.36799999999999999</v>
+        <v>0.41089837997054002</v>
       </c>
       <c r="G100" s="8">
-        <v>0.36533333333333301</v>
+        <v>0.41089837997054401</v>
       </c>
       <c r="H100">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I100" s="6">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J100" s="1">
-        <v>0.27272727272726999</v>
+        <v>0.26363636363636</v>
       </c>
       <c r="K100" s="8">
-        <v>0.28282828282828198</v>
+        <v>0.27272727272727199</v>
       </c>
       <c r="L100" s="1">
-        <v>0.72727272727272996</v>
+        <v>0.73636363636364</v>
       </c>
       <c r="M100" s="8">
-        <v>0.71717171717171702</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="N100" s="1">
-        <v>0.35927272727273002</v>
+        <v>0.32546525639308999</v>
       </c>
       <c r="O100" s="8">
-        <v>0.35183838383838301</v>
+        <v>0.316374347302182</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B101">
-        <v>890</v>
+        <v>717</v>
       </c>
       <c r="C101" s="6">
-        <v>890</v>
+        <v>717</v>
       </c>
       <c r="D101" s="1">
-        <v>0.73820224719101002</v>
+        <v>0.58158995815900005</v>
       </c>
       <c r="E101" s="8">
-        <v>0.73932584269662904</v>
+        <v>0.58856345885634498</v>
       </c>
       <c r="F101" s="1">
-        <v>0.26179775280898998</v>
+        <v>0.418410041841</v>
       </c>
       <c r="G101" s="8">
-        <v>0.26067415730337001</v>
+        <v>0.41143654114365402</v>
       </c>
       <c r="H101">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="I101" s="6">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="J101" s="1">
-        <v>0.41089108910890998</v>
+        <v>0.16216216216216001</v>
       </c>
       <c r="K101" s="8">
-        <v>0.41584158415841499</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="L101" s="1">
-        <v>0.58910891089108997</v>
+        <v>0.83783783783784005</v>
       </c>
       <c r="M101" s="8">
-        <v>0.58415841584158401</v>
+        <v>0.83783783783783705</v>
       </c>
       <c r="N101" s="1">
-        <v>0.32731115808209998</v>
+        <v>0.41942779599683</v>
       </c>
       <c r="O101" s="8">
-        <v>0.323484258538213</v>
+        <v>0.42640129669418297</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="2" customFormat="1">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B102">
-        <v>933</v>
+        <v>998</v>
       </c>
       <c r="C102" s="6">
-        <v>933</v>
+        <v>998</v>
       </c>
       <c r="D102" s="1">
-        <v>0.77920685959270997</v>
+        <v>0.56713426853707005</v>
       </c>
       <c r="E102" s="8">
-        <v>0.782422293676313</v>
+        <v>0.56813627254509003</v>
       </c>
       <c r="F102" s="1">
-        <v>0.22079314040729001</v>
+        <v>0.43286573146293</v>
       </c>
       <c r="G102" s="8">
-        <v>0.217577706323687</v>
+        <v>0.43186372745490897</v>
       </c>
       <c r="H102">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="I102" s="6">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="J102" s="1">
-        <v>0.25</v>
+        <v>0.27564102564102999</v>
       </c>
       <c r="K102" s="8">
-        <v>0.25</v>
+        <v>0.27564102564102499</v>
       </c>
       <c r="L102" s="1">
-        <v>0.75</v>
+        <v>0.72435897435897001</v>
       </c>
       <c r="M102" s="8">
-        <v>0.75</v>
+        <v>0.72435897435897401</v>
       </c>
       <c r="N102" s="1">
-        <v>0.52920685959270997</v>
+        <v>0.29149324289605</v>
       </c>
       <c r="O102" s="8">
-        <v>0.532422293676313</v>
+        <v>0.29249524690406398</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B103">
-        <v>876</v>
+        <v>701</v>
       </c>
       <c r="C103" s="6">
-        <v>876</v>
+        <v>701</v>
       </c>
       <c r="D103" s="1">
-        <v>0.53082191780821997</v>
+        <v>0.56205420827388997</v>
       </c>
       <c r="E103" s="8">
-        <v>0.53196347031963398</v>
+        <v>0.57061340941512095</v>
       </c>
       <c r="F103" s="1">
-        <v>0.46917808219177998</v>
+        <v>0.43794579172610998</v>
       </c>
       <c r="G103" s="8">
-        <v>0.46803652968036502</v>
+        <v>0.42938659058487799</v>
       </c>
       <c r="H103">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="I103" s="6">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="J103" s="1">
-        <v>0.2</v>
+        <v>0.16470588235294001</v>
       </c>
       <c r="K103" s="8">
-        <v>0.2</v>
+        <v>0.16470588235294101</v>
       </c>
       <c r="L103" s="1">
-        <v>0.8</v>
+        <v>0.83529411764705996</v>
       </c>
       <c r="M103" s="8">
-        <v>0.8</v>
+        <v>0.83529411764705797</v>
       </c>
       <c r="N103" s="1">
-        <v>0.33082191780822001</v>
+        <v>0.39734832592094999</v>
       </c>
       <c r="O103" s="8">
-        <v>0.33196347031963402</v>
+        <v>0.40590752706217997</v>
       </c>
     </row>
     <row r="104" spans="1:15" s="2" customFormat="1">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>205</v>
+        <v>876</v>
       </c>
       <c r="C104" s="6">
-        <v>205</v>
+        <v>876</v>
       </c>
       <c r="D104" s="1">
-        <v>0.41951219512194998</v>
+        <v>0.53082191780821997</v>
       </c>
       <c r="E104" s="8">
-        <v>0.42926829268292599</v>
+        <v>0.53196347031963398</v>
       </c>
       <c r="F104" s="1">
-        <v>0.58048780487804996</v>
+        <v>0.46917808219177998</v>
       </c>
       <c r="G104" s="8">
-        <v>0.57073170731707301</v>
+        <v>0.46803652968036502</v>
       </c>
       <c r="H104">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="I104" s="6">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="J104" s="1">
-        <v>0.12765957446809001</v>
+        <v>0.2</v>
       </c>
       <c r="K104" s="8">
-        <v>0.12765957446808501</v>
+        <v>0.2</v>
       </c>
       <c r="L104" s="1">
-        <v>0.87234042553191005</v>
+        <v>0.8</v>
       </c>
       <c r="M104" s="8">
-        <v>0.87234042553191404</v>
+        <v>0.8</v>
       </c>
       <c r="N104" s="1">
-        <v>0.29185262065387002</v>
+        <v>0.33082191780822001</v>
       </c>
       <c r="O104" s="8">
-        <v>0.30160871821484098</v>
+        <v>0.33196347031963402</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="2" customFormat="1">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B105">
-        <v>1030</v>
+        <v>497</v>
       </c>
       <c r="C105" s="6">
-        <v>1030</v>
+        <v>497</v>
       </c>
       <c r="D105" s="1">
-        <v>0.73106796116505002</v>
+        <v>0.51911468812877004</v>
       </c>
       <c r="E105" s="8">
-        <v>0.73300970873786397</v>
+        <v>0.52313883299798702</v>
       </c>
       <c r="F105" s="1">
-        <v>0.26893203883494998</v>
+        <v>0.48088531187123001</v>
       </c>
       <c r="G105" s="8">
-        <v>0.26699029126213503</v>
+        <v>0.47686116700201198</v>
       </c>
       <c r="H105">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="I105" s="6">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="J105" s="1">
-        <v>0.38709677419354999</v>
+        <v>0.26737967914438998</v>
       </c>
       <c r="K105" s="8">
-        <v>0.38709677419354799</v>
+        <v>0.27272727272727199</v>
       </c>
       <c r="L105" s="1">
-        <v>0.61290322580644996</v>
+        <v>0.73262032085562001</v>
       </c>
       <c r="M105" s="8">
-        <v>0.61290322580645096</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="N105" s="1">
-        <v>0.34397118697149998</v>
+        <v>0.25173500898439</v>
       </c>
       <c r="O105" s="8">
-        <v>0.34591293454431499</v>
+        <v>0.25041156027071498</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="2" customFormat="1">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B106">
-        <v>996</v>
+        <v>643</v>
       </c>
       <c r="C106" s="6">
-        <v>996</v>
+        <v>643</v>
       </c>
       <c r="D106" s="1">
-        <v>0.76305220883533997</v>
+        <v>0.49766718506997998</v>
       </c>
       <c r="E106" s="8">
-        <v>0.76405622489959801</v>
+        <v>0.49922239502332799</v>
       </c>
       <c r="F106" s="1">
-        <v>0.23694779116466</v>
+        <v>0.50233281493002002</v>
       </c>
       <c r="G106" s="8">
-        <v>0.23594377510040099</v>
+        <v>0.50077760497667101</v>
       </c>
       <c r="H106">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="I106" s="6">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="J106" s="1">
-        <v>0.26666666666666999</v>
+        <v>5.1470588235293997E-2</v>
       </c>
       <c r="K106" s="8">
-        <v>0.266666666666666</v>
+        <v>5.1470588235294101E-2</v>
       </c>
       <c r="L106" s="1">
-        <v>0.73333333333332995</v>
+        <v>0.94852941176470995</v>
       </c>
       <c r="M106" s="8">
-        <v>0.73333333333333295</v>
+        <v>0.94852941176470495</v>
       </c>
       <c r="N106" s="1">
-        <v>0.49638554216866998</v>
+        <v>0.44619659683468998</v>
       </c>
       <c r="O106" s="8">
-        <v>0.49738955823293102</v>
+        <v>0.447751806788033</v>
       </c>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" s="2">
-        <v>949</v>
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107">
+        <v>579</v>
       </c>
       <c r="C107" s="6">
-        <v>949</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.94731296101159002</v>
+        <v>579</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.49568221070812002</v>
       </c>
       <c r="E107" s="8">
-        <v>0.94836670179135896</v>
-      </c>
-      <c r="F107" s="3">
-        <v>5.2687038988408999E-2</v>
+        <v>0.50259067357512899</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.50431778929187998</v>
       </c>
       <c r="G107" s="8">
-        <v>5.1633298208640703E-2</v>
-      </c>
-      <c r="H107" s="2">
-        <v>291</v>
+        <v>0.49740932642487001</v>
+      </c>
+      <c r="H107">
+        <v>184</v>
       </c>
       <c r="I107" s="6">
-        <v>291</v>
-      </c>
-      <c r="J107" s="3">
-        <v>0.73539518900344003</v>
+        <v>184</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.15760869565217001</v>
       </c>
       <c r="K107" s="8">
-        <v>0.73539518900343603</v>
-      </c>
-      <c r="L107" s="3">
-        <v>0.26460481099656002</v>
+        <v>0.157608695652173</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0.84239130434783005</v>
       </c>
       <c r="M107" s="8">
-        <v>0.26460481099656302</v>
-      </c>
-      <c r="N107" s="3">
-        <v>0.21191777200815001</v>
+        <v>0.84239130434782605</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0.33807351505594002</v>
       </c>
       <c r="O107" s="8">
-        <v>0.21297151278792201</v>
+        <v>0.34498197792295499</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="2" customFormat="1">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="B108">
-        <v>756</v>
+        <v>1188</v>
       </c>
       <c r="C108" s="6">
-        <v>756</v>
+        <v>1188</v>
       </c>
       <c r="D108" s="1">
-        <v>0.92195767195766998</v>
+        <v>0.48737373737374001</v>
       </c>
       <c r="E108" s="8">
-        <v>0.92195767195767198</v>
+        <v>0.48905723905723902</v>
       </c>
       <c r="F108" s="1">
-        <v>7.8042328042327996E-2</v>
+        <v>0.51262626262625999</v>
       </c>
       <c r="G108" s="8">
-        <v>7.8042328042327996E-2</v>
+        <v>0.51094276094276003</v>
       </c>
       <c r="H108">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I108" s="6">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J108" s="1">
-        <v>0.80952380952380998</v>
+        <v>0.1</v>
       </c>
       <c r="K108" s="8">
-        <v>0.80952380952380898</v>
+        <v>0.1</v>
       </c>
       <c r="L108" s="1">
-        <v>0.19047619047618999</v>
+        <v>0.9</v>
       </c>
       <c r="M108" s="8">
-        <v>0.19047619047618999</v>
+        <v>0.9</v>
       </c>
       <c r="N108" s="1">
-        <v>0.11243386243386</v>
+        <v>0.38737373737373998</v>
       </c>
       <c r="O108" s="8">
-        <v>0.112433862433862</v>
+        <v>0.38905723905723899</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B109">
-        <v>744</v>
+        <v>615</v>
       </c>
       <c r="C109" s="6">
-        <v>744</v>
+        <v>615</v>
       </c>
       <c r="D109" s="1">
-        <v>0.72715053763440995</v>
+        <v>0.48130081300812999</v>
       </c>
       <c r="E109" s="8">
-        <v>0.73387096774193505</v>
+        <v>0.48780487804877998</v>
       </c>
       <c r="F109" s="1">
-        <v>0.27284946236558999</v>
+        <v>0.51869918699187001</v>
       </c>
       <c r="G109" s="8">
-        <v>0.266129032258064</v>
+        <v>0.51219512195121897</v>
       </c>
       <c r="H109">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="I109" s="6">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="J109" s="1">
-        <v>0.21276595744681001</v>
+        <v>0.1453488372093</v>
       </c>
       <c r="K109" s="8">
-        <v>0.21276595744680801</v>
+        <v>0.15116279069767399</v>
       </c>
       <c r="L109" s="1">
-        <v>0.78723404255318996</v>
+        <v>0.85465116279069997</v>
       </c>
       <c r="M109" s="8">
-        <v>0.78723404255319096</v>
+        <v>0.84883720930232498</v>
       </c>
       <c r="N109" s="1">
-        <v>0.51438458018760003</v>
+        <v>0.33595197579883002</v>
       </c>
       <c r="O109" s="8">
-        <v>0.52110501029512701</v>
+        <v>0.33664208735110601</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <v>614</v>
+        <v>106</v>
       </c>
       <c r="C110" s="6">
-        <v>614</v>
+        <v>106</v>
       </c>
       <c r="D110" s="1">
-        <v>0.76872964169380997</v>
+        <v>0.46226415094340001</v>
       </c>
       <c r="E110" s="8">
-        <v>0.77035830618892498</v>
+        <v>0.46226415094339601</v>
       </c>
       <c r="F110" s="1">
-        <v>0.23127035830619</v>
+        <v>0.53773584905659999</v>
       </c>
       <c r="G110" s="8">
-        <v>0.22964169381107399</v>
+        <v>0.53773584905660299</v>
       </c>
       <c r="H110">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I110" s="6">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="J110" s="1">
-        <v>0.26174496644294998</v>
+        <v>7.6923076923076997E-2</v>
       </c>
       <c r="K110" s="8">
-        <v>0.26174496644295298</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="L110" s="1">
-        <v>0.73825503355705002</v>
+        <v>0.92307692307692002</v>
       </c>
       <c r="M110" s="8">
-        <v>0.73825503355704702</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="N110" s="1">
-        <v>0.50698467525086</v>
+        <v>0.38534107402031997</v>
       </c>
       <c r="O110" s="8">
-        <v>0.508613339745972</v>
+        <v>0.38534107402031897</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="C111" s="6">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="D111" s="1">
-        <v>0.74556213017751005</v>
+        <v>0.41951219512194998</v>
       </c>
       <c r="E111" s="8">
-        <v>0.74852071005917098</v>
+        <v>0.42926829268292599</v>
       </c>
       <c r="F111" s="1">
-        <v>0.25443786982249</v>
+        <v>0.58048780487804996</v>
       </c>
       <c r="G111" s="8">
-        <v>0.25147928994082802</v>
+        <v>0.57073170731707301</v>
       </c>
       <c r="H111">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="I111" s="6">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="J111" s="1">
-        <v>0.14563106796117001</v>
+        <v>0.12765957446809001</v>
       </c>
       <c r="K111" s="8">
-        <v>0.14563106796116501</v>
+        <v>0.12765957446808501</v>
       </c>
       <c r="L111" s="1">
-        <v>0.85436893203883002</v>
+        <v>0.87234042553191005</v>
       </c>
       <c r="M111" s="8">
-        <v>0.85436893203883502</v>
+        <v>0.87234042553191404</v>
       </c>
       <c r="N111" s="1">
-        <v>0.59993106221634995</v>
+        <v>0.29185262065387002</v>
       </c>
       <c r="O111" s="8">
-        <v>0.602889642098006</v>
+        <v>0.30160871821484098</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="B112">
-        <v>517</v>
+        <v>654</v>
       </c>
       <c r="C112" s="6">
-        <v>517</v>
+        <v>654</v>
       </c>
       <c r="D112" s="1">
-        <v>0.62282398452610999</v>
+        <v>0.40672782874618002</v>
       </c>
       <c r="E112" s="8">
-        <v>0.62862669245647895</v>
+        <v>0.40825688073394401</v>
       </c>
       <c r="F112" s="1">
-        <v>0.37717601547389001</v>
+        <v>0.59327217125382004</v>
       </c>
       <c r="G112" s="8">
-        <v>0.37137330754351999</v>
+        <v>0.59174311926605505</v>
       </c>
       <c r="H112">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="I112" s="6">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="J112" s="1">
-        <v>0.34523809523810001</v>
+        <v>0.33846153846153998</v>
       </c>
       <c r="K112" s="8">
-        <v>0.351190476190476</v>
+        <v>0.33846153846153798</v>
       </c>
       <c r="L112" s="1">
-        <v>0.65476190476189999</v>
+        <v>0.66153846153845997</v>
       </c>
       <c r="M112" s="8">
-        <v>0.64880952380952295</v>
+        <v>0.66153846153846096</v>
       </c>
       <c r="N112" s="1">
-        <v>0.27758588928802003</v>
+        <v>6.8266290284639E-2</v>
       </c>
       <c r="O112" s="8">
-        <v>0.27743621626600301</v>
+        <v>6.9795342272406399E-2</v>
       </c>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="2">
-        <v>514</v>
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113">
+        <v>532</v>
       </c>
       <c r="C113" s="6">
-        <v>514</v>
-      </c>
-      <c r="D113" s="3">
-        <v>0.88326848249027001</v>
+        <v>532</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.34210526315789003</v>
       </c>
       <c r="E113" s="8">
-        <v>0.88326848249027201</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0.11673151750973</v>
+        <v>0.34586466165413499</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.65789473684210997</v>
       </c>
       <c r="G113" s="8">
-        <v>0.116731517509727</v>
-      </c>
-      <c r="H113" s="2">
-        <v>117</v>
+        <v>0.65413533834586401</v>
+      </c>
+      <c r="H113">
+        <v>156</v>
       </c>
       <c r="I113" s="6">
-        <v>117</v>
-      </c>
-      <c r="J113" s="3">
-        <v>0.4017094017094</v>
+        <v>156</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0.10256410256409999</v>
       </c>
       <c r="K113" s="8">
-        <v>0.401709401709401</v>
-      </c>
-      <c r="L113" s="3">
-        <v>0.59829059829060005</v>
+        <v>0.108974358974358</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0.89743589743590002</v>
       </c>
       <c r="M113" s="8">
-        <v>0.59829059829059805</v>
-      </c>
-      <c r="N113" s="3">
-        <v>0.48155908078087001</v>
+        <v>0.89102564102564097</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0.23954116059378999</v>
       </c>
       <c r="O113" s="8">
-        <v>0.48155908078087001</v>
+        <v>0.23689030267977601</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:O113">
-    <sortCondition ref="A2:A113"/>
+    <sortCondition ref="F2:F113"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
